--- a/Visualization/PowerBI/Data/EmployeesDetails.xlsx
+++ b/Visualization/PowerBI/Data/EmployeesDetails.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seder\Documents\GitHub\Data-Analysis\Visualization\PowerBI\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A6642-E479-4D32-960F-770B8B55CFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>EmpID</t>
   </si>
@@ -50,887 +31,884 @@
     <t>ManagerID</t>
   </si>
   <si>
-    <t>Michael Reilly</t>
-  </si>
-  <si>
-    <t>Peter Hurst</t>
-  </si>
-  <si>
-    <t>Amber Stephens</t>
-  </si>
-  <si>
-    <t>Robert Williams</t>
-  </si>
-  <si>
-    <t>Ashley Henderson</t>
-  </si>
-  <si>
-    <t>Patricia Espinoza</t>
-  </si>
-  <si>
-    <t>Sue Boone</t>
-  </si>
-  <si>
-    <t>Gabrielle Alvarez</t>
-  </si>
-  <si>
-    <t>Zachary Scott</t>
-  </si>
-  <si>
-    <t>Michael Harris</t>
-  </si>
-  <si>
-    <t>Sandra Armstrong</t>
-  </si>
-  <si>
-    <t>Pamela Lawrence</t>
-  </si>
-  <si>
-    <t>Alan Zamora</t>
-  </si>
-  <si>
-    <t>Mr. Thomas Conrad</t>
-  </si>
-  <si>
-    <t>Micheal Flores</t>
-  </si>
-  <si>
-    <t>Tammy Johnston</t>
-  </si>
-  <si>
-    <t>Michael Bradford</t>
-  </si>
-  <si>
-    <t>Allison Bell</t>
-  </si>
-  <si>
-    <t>Michael Martin</t>
-  </si>
-  <si>
-    <t>Joshua Elliott</t>
-  </si>
-  <si>
-    <t>Tina Morris</t>
-  </si>
-  <si>
-    <t>Jacob Mason</t>
-  </si>
-  <si>
-    <t>Elizabeth Chan</t>
-  </si>
-  <si>
-    <t>Sean Lambert</t>
-  </si>
-  <si>
-    <t>Carolyn Carpenter</t>
-  </si>
-  <si>
-    <t>Ryan Swanson</t>
-  </si>
-  <si>
-    <t>Beverly Bryant</t>
-  </si>
-  <si>
-    <t>Megan Dennis</t>
-  </si>
-  <si>
-    <t>John Gomez</t>
-  </si>
-  <si>
-    <t>Justin Prince</t>
-  </si>
-  <si>
-    <t>Brittany Riggs</t>
-  </si>
-  <si>
-    <t>Zachary Allen</t>
-  </si>
-  <si>
-    <t>Nicholas Brown</t>
-  </si>
-  <si>
-    <t>Peter Cunningham</t>
-  </si>
-  <si>
-    <t>Nicholas Juarez</t>
-  </si>
-  <si>
-    <t>Joseph Davidson</t>
-  </si>
-  <si>
-    <t>Patricia Lopez</t>
-  </si>
-  <si>
-    <t>Makayla Barnes</t>
-  </si>
-  <si>
-    <t>Melissa Sullivan</t>
-  </si>
-  <si>
-    <t>David Davis</t>
-  </si>
-  <si>
-    <t>Jeremy Montgomery</t>
-  </si>
-  <si>
-    <t>Antonio Kerr</t>
-  </si>
-  <si>
-    <t>David Medina</t>
-  </si>
-  <si>
-    <t>Jacob Gray</t>
-  </si>
-  <si>
-    <t>Justin Odonnell</t>
-  </si>
-  <si>
-    <t>Christopher White</t>
-  </si>
-  <si>
-    <t>Jared Clements</t>
-  </si>
-  <si>
-    <t>Bob Stanley</t>
-  </si>
-  <si>
-    <t>Daniel Hawkins</t>
-  </si>
-  <si>
-    <t>Wesley Clark</t>
-  </si>
-  <si>
-    <t>Tracy Perry</t>
-  </si>
-  <si>
-    <t>Jaime French</t>
-  </si>
-  <si>
-    <t>Brittany Adams</t>
-  </si>
-  <si>
-    <t>Donald Lewis</t>
-  </si>
-  <si>
-    <t>Anna Owen</t>
-  </si>
-  <si>
-    <t>Cynthia Hayes</t>
-  </si>
-  <si>
-    <t>Kristin Williams</t>
-  </si>
-  <si>
-    <t>Jacqueline Wallace</t>
-  </si>
-  <si>
-    <t>Charles Chavez</t>
-  </si>
-  <si>
-    <t>Mikayla Ramirez</t>
-  </si>
-  <si>
-    <t>Mark Buck</t>
-  </si>
-  <si>
-    <t>Kimberly Adams</t>
-  </si>
-  <si>
-    <t>Sandra Perez</t>
-  </si>
-  <si>
-    <t>Jason Marsh</t>
-  </si>
-  <si>
-    <t>John Berg</t>
-  </si>
-  <si>
-    <t>Joel Jackson</t>
-  </si>
-  <si>
-    <t>Stephanie Watson</t>
-  </si>
-  <si>
-    <t>Christine Lynch</t>
-  </si>
-  <si>
-    <t>Angel Armstrong</t>
-  </si>
-  <si>
-    <t>Charles Hughes</t>
-  </si>
-  <si>
-    <t>Darlene Andrews</t>
-  </si>
-  <si>
-    <t>Rachel Myers</t>
-  </si>
-  <si>
-    <t>Mrs. Amanda James MD</t>
-  </si>
-  <si>
-    <t>Stephanie Norris</t>
-  </si>
-  <si>
-    <t>Dr. Patrick Jones</t>
-  </si>
-  <si>
-    <t>Cody Bridges</t>
-  </si>
-  <si>
-    <t>Laura Escobar</t>
-  </si>
-  <si>
-    <t>Brad Rodriguez</t>
-  </si>
-  <si>
-    <t>Joel Rios</t>
-  </si>
-  <si>
-    <t>Jessica Brooks</t>
-  </si>
-  <si>
-    <t>John Blackburn</t>
-  </si>
-  <si>
-    <t>Mary Gentry</t>
-  </si>
-  <si>
-    <t>Stephanie Cooper</t>
-  </si>
-  <si>
-    <t>Lisa Cunningham</t>
-  </si>
-  <si>
-    <t>Angela Miller</t>
-  </si>
-  <si>
-    <t>Jeffrey Welch</t>
-  </si>
-  <si>
-    <t>Stacey Harris</t>
-  </si>
-  <si>
-    <t>Kenneth Shaw</t>
-  </si>
-  <si>
-    <t>Christopher Perry</t>
-  </si>
-  <si>
-    <t>Emma Garcia</t>
-  </si>
-  <si>
-    <t>Lori Miller</t>
-  </si>
-  <si>
-    <t>Peggy Herring</t>
-  </si>
-  <si>
-    <t>Ariana Jackson</t>
-  </si>
-  <si>
-    <t>Sean Weber</t>
-  </si>
-  <si>
-    <t>Christopher Johnson</t>
-  </si>
-  <si>
-    <t>Haley Finley</t>
-  </si>
-  <si>
-    <t>Ryan Levine</t>
-  </si>
-  <si>
-    <t>stevensbrandon@example.com</t>
-  </si>
-  <si>
-    <t>marshapril@example.net</t>
-  </si>
-  <si>
-    <t>juliarice@example.net</t>
-  </si>
-  <si>
-    <t>kriley@example.org</t>
-  </si>
-  <si>
-    <t>derrick28@example.com</t>
-  </si>
-  <si>
-    <t>btucker@example.com</t>
-  </si>
-  <si>
-    <t>griffinmelissa@example.net</t>
-  </si>
-  <si>
-    <t>rjones@example.com</t>
-  </si>
-  <si>
-    <t>colleenwatkins@example.net</t>
-  </si>
-  <si>
-    <t>zfernandez@example.org</t>
-  </si>
-  <si>
-    <t>lisa00@example.net</t>
-  </si>
-  <si>
-    <t>angelachase@example.net</t>
-  </si>
-  <si>
-    <t>csanchez@example.com</t>
-  </si>
-  <si>
-    <t>michaelcampbell@example.org</t>
-  </si>
-  <si>
-    <t>gregory41@example.net</t>
-  </si>
-  <si>
-    <t>josephwashington@example.com</t>
-  </si>
-  <si>
-    <t>patrick49@example.net</t>
-  </si>
-  <si>
-    <t>andersonbetty@example.org</t>
-  </si>
-  <si>
-    <t>brianhuffman@example.org</t>
-  </si>
-  <si>
-    <t>shieldskaren@example.org</t>
-  </si>
-  <si>
-    <t>lamjohn@example.com</t>
-  </si>
-  <si>
-    <t>kgray@example.com</t>
-  </si>
-  <si>
-    <t>browneric@example.com</t>
-  </si>
-  <si>
-    <t>sharris@example.com</t>
-  </si>
-  <si>
-    <t>fkennedy@example.com</t>
-  </si>
-  <si>
-    <t>laurayu@example.org</t>
-  </si>
-  <si>
-    <t>waynehoward@example.net</t>
-  </si>
-  <si>
-    <t>eflores@example.com</t>
-  </si>
-  <si>
-    <t>rjones@example.net</t>
-  </si>
-  <si>
-    <t>jennifermoore@example.net</t>
-  </si>
-  <si>
-    <t>dmorgan@example.org</t>
-  </si>
-  <si>
-    <t>robertmorgan@example.net</t>
-  </si>
-  <si>
-    <t>caldwelldavid@example.net</t>
-  </si>
-  <si>
-    <t>pthomas@example.com</t>
-  </si>
-  <si>
-    <t>qgarcia@example.org</t>
-  </si>
-  <si>
-    <t>ramirezsarah@example.net</t>
-  </si>
-  <si>
-    <t>andresmcdonald@example.net</t>
-  </si>
-  <si>
-    <t>adamstom@example.org</t>
-  </si>
-  <si>
-    <t>rowlandangela@example.com</t>
-  </si>
-  <si>
-    <t>wwilson@example.net</t>
-  </si>
-  <si>
-    <t>ddickerson@example.com</t>
-  </si>
-  <si>
-    <t>danderson@example.com</t>
-  </si>
-  <si>
-    <t>eric65@example.net</t>
-  </si>
-  <si>
-    <t>connie63@example.com</t>
-  </si>
-  <si>
-    <t>rcooper@example.com</t>
-  </si>
-  <si>
-    <t>mallory17@example.com</t>
-  </si>
-  <si>
-    <t>johnbrown@example.org</t>
-  </si>
-  <si>
-    <t>williamcannon@example.com</t>
-  </si>
-  <si>
-    <t>murphyanthony@example.org</t>
-  </si>
-  <si>
-    <t>xhayes@example.net</t>
-  </si>
-  <si>
-    <t>katherine38@example.com</t>
-  </si>
-  <si>
-    <t>annette04@example.com</t>
-  </si>
-  <si>
-    <t>wnewton@example.com</t>
-  </si>
-  <si>
-    <t>meyerchristopher@example.com</t>
-  </si>
-  <si>
-    <t>amypennington@example.net</t>
-  </si>
-  <si>
-    <t>christophersullivan@example.org</t>
-  </si>
-  <si>
-    <t>mary76@example.org</t>
-  </si>
-  <si>
-    <t>danielle74@example.com</t>
-  </si>
-  <si>
-    <t>hensleykaitlyn@example.org</t>
-  </si>
-  <si>
-    <t>mendezkristen@example.com</t>
-  </si>
-  <si>
-    <t>reyesalicia@example.org</t>
-  </si>
-  <si>
-    <t>debbie73@example.org</t>
-  </si>
-  <si>
-    <t>wilsonrobert@example.com</t>
-  </si>
-  <si>
-    <t>ericevans@example.org</t>
-  </si>
-  <si>
-    <t>susan33@example.org</t>
-  </si>
-  <si>
-    <t>kari60@example.net</t>
-  </si>
-  <si>
-    <t>iandeleon@example.org</t>
-  </si>
-  <si>
-    <t>griffithdarrell@example.com</t>
-  </si>
-  <si>
-    <t>aliciarodriguez@example.org</t>
-  </si>
-  <si>
-    <t>rachael16@example.com</t>
-  </si>
-  <si>
-    <t>elizabethcampbell@example.net</t>
-  </si>
-  <si>
-    <t>jamie76@example.com</t>
-  </si>
-  <si>
-    <t>brendan52@example.com</t>
-  </si>
-  <si>
-    <t>gabrielle78@example.net</t>
-  </si>
-  <si>
-    <t>sharon49@example.net</t>
-  </si>
-  <si>
-    <t>jameslee@example.net</t>
-  </si>
-  <si>
-    <t>zwatson@example.com</t>
-  </si>
-  <si>
-    <t>xstevenson@example.net</t>
-  </si>
-  <si>
-    <t>ptorres@example.net</t>
-  </si>
-  <si>
-    <t>gbrooks@example.com</t>
-  </si>
-  <si>
-    <t>karenroberts@example.net</t>
-  </si>
-  <si>
-    <t>jbenjamin@example.com</t>
-  </si>
-  <si>
-    <t>garrett67@example.net</t>
-  </si>
-  <si>
-    <t>smithcatherine@example.net</t>
-  </si>
-  <si>
-    <t>dawsonthomas@example.org</t>
-  </si>
-  <si>
-    <t>newtonjames@example.net</t>
-  </si>
-  <si>
-    <t>zrojas@example.com</t>
-  </si>
-  <si>
-    <t>richard77@example.net</t>
-  </si>
-  <si>
-    <t>wsharp@example.com</t>
-  </si>
-  <si>
-    <t>brenda77@example.org</t>
-  </si>
-  <si>
-    <t>tony47@example.com</t>
-  </si>
-  <si>
-    <t>jordanjohnson@example.org</t>
-  </si>
-  <si>
-    <t>powersshannon@example.com</t>
-  </si>
-  <si>
-    <t>brandongonzalez@example.com</t>
-  </si>
-  <si>
-    <t>robertchristensen@example.com</t>
-  </si>
-  <si>
-    <t>elizabeth62@example.com</t>
-  </si>
-  <si>
-    <t>kevinjohnson@example.com</t>
-  </si>
-  <si>
-    <t>+1-464-832-0048x210</t>
-  </si>
-  <si>
-    <t>470.881.3846</t>
-  </si>
-  <si>
-    <t>3023211624</t>
-  </si>
-  <si>
-    <t>+1-774-722-4050</t>
-  </si>
-  <si>
-    <t>309.880.9381</t>
-  </si>
-  <si>
-    <t>299.530.3392x146</t>
-  </si>
-  <si>
-    <t>(291)835-4859x19080</t>
-  </si>
-  <si>
-    <t>001-390-841-4863x9505</t>
-  </si>
-  <si>
-    <t>453.840.9619x1033</t>
-  </si>
-  <si>
-    <t>(846)999-3911</t>
-  </si>
-  <si>
-    <t>958-693-6567x118</t>
-  </si>
-  <si>
-    <t>404.389.6540x23859</t>
-  </si>
-  <si>
-    <t>(367)784-9674</t>
-  </si>
-  <si>
-    <t>519.451.3184</t>
-  </si>
-  <si>
-    <t>+1-737-811-8549x1843</t>
-  </si>
-  <si>
-    <t>9142638472</t>
-  </si>
-  <si>
-    <t>839-705-1100x3196</t>
-  </si>
-  <si>
-    <t>746.938.4886</t>
-  </si>
-  <si>
-    <t>001-603-385-9373x6338</t>
-  </si>
-  <si>
-    <t>698.607.6719</t>
-  </si>
-  <si>
-    <t>7664196521</t>
-  </si>
-  <si>
-    <t>324.716.7197x95577</t>
-  </si>
-  <si>
-    <t>983.851.7779x326</t>
-  </si>
-  <si>
-    <t>(755)826-0183</t>
-  </si>
-  <si>
-    <t>+1-302-437-4490x0916</t>
-  </si>
-  <si>
-    <t>558.243.1051</t>
-  </si>
-  <si>
-    <t>001-351-786-8336x34231</t>
-  </si>
-  <si>
-    <t>315-541-4320x53441</t>
-  </si>
-  <si>
-    <t>9748078328</t>
-  </si>
-  <si>
-    <t>823.272.6656x04047</t>
-  </si>
-  <si>
-    <t>802.742.7644x376</t>
-  </si>
-  <si>
-    <t>2012637486</t>
-  </si>
-  <si>
-    <t>(845)367-9161x32479</t>
-  </si>
-  <si>
-    <t>001-814-597-5149x3465</t>
-  </si>
-  <si>
-    <t>+1-952-971-5454x01567</t>
-  </si>
-  <si>
-    <t>(888)628-6140x8062</t>
-  </si>
-  <si>
-    <t>+1-264-804-0074x510</t>
-  </si>
-  <si>
-    <t>792-943-0729x17321</t>
-  </si>
-  <si>
-    <t>654-302-4444x29856</t>
-  </si>
-  <si>
-    <t>608-426-1700x6402</t>
-  </si>
-  <si>
-    <t>001-908-920-4950x8643</t>
-  </si>
-  <si>
-    <t>811.819.1199</t>
-  </si>
-  <si>
-    <t>8669402365</t>
-  </si>
-  <si>
-    <t>240-493-7129</t>
-  </si>
-  <si>
-    <t>401-695-5473</t>
-  </si>
-  <si>
-    <t>(389)731-9992</t>
-  </si>
-  <si>
-    <t>(376)641-2310x524</t>
-  </si>
-  <si>
-    <t>215-625-7271x5196</t>
-  </si>
-  <si>
-    <t>396.697.7234x231</t>
-  </si>
-  <si>
-    <t>(799)484-6391x7782</t>
-  </si>
-  <si>
-    <t>+1-538-519-2543</t>
-  </si>
-  <si>
-    <t>(935)404-7205</t>
-  </si>
-  <si>
-    <t>+1-771-542-6500x05971</t>
-  </si>
-  <si>
-    <t>(448)236-7330</t>
-  </si>
-  <si>
-    <t>927-946-4291x30219</t>
-  </si>
-  <si>
-    <t>524.464.5937x88861</t>
-  </si>
-  <si>
-    <t>+1-652-203-0482x047</t>
-  </si>
-  <si>
-    <t>(330)543-3054</t>
-  </si>
-  <si>
-    <t>462.214.1642x3171</t>
-  </si>
-  <si>
-    <t>651-441-1924</t>
-  </si>
-  <si>
-    <t>578.519.0638</t>
-  </si>
-  <si>
-    <t>(694)837-9869x399</t>
-  </si>
-  <si>
-    <t>234-954-4253x7293</t>
-  </si>
-  <si>
-    <t>001-875-725-6963x8619</t>
-  </si>
-  <si>
-    <t>978-900-0883</t>
-  </si>
-  <si>
-    <t>001-991-281-5327x8994</t>
-  </si>
-  <si>
-    <t>001-913-669-4158</t>
-  </si>
-  <si>
-    <t>873.671.5998x132</t>
-  </si>
-  <si>
-    <t>645.663.8692x5822</t>
-  </si>
-  <si>
-    <t>411-479-6746x176</t>
-  </si>
-  <si>
-    <t>+1-680-346-3517x88493</t>
-  </si>
-  <si>
-    <t>240-437-6592</t>
-  </si>
-  <si>
-    <t>001-491-857-5080x0561</t>
-  </si>
-  <si>
-    <t>+1-346-212-2081x6552</t>
-  </si>
-  <si>
-    <t>342.452.3532x610</t>
-  </si>
-  <si>
-    <t>001-516-797-7074x817</t>
-  </si>
-  <si>
-    <t>(663)517-2723x943</t>
-  </si>
-  <si>
-    <t>4835308791</t>
-  </si>
-  <si>
-    <t>001-866-453-0436</t>
-  </si>
-  <si>
-    <t>9562554547</t>
-  </si>
-  <si>
-    <t>001-986-408-4317x2858</t>
-  </si>
-  <si>
-    <t>778-219-1982x64162</t>
-  </si>
-  <si>
-    <t>261.704.2666x94567</t>
-  </si>
-  <si>
-    <t>(434)936-5167x7479</t>
-  </si>
-  <si>
-    <t>(369)686-1904</t>
-  </si>
-  <si>
-    <t>001-643-282-0210x13929</t>
-  </si>
-  <si>
-    <t>001-391-540-8790x22525</t>
-  </si>
-  <si>
-    <t>(536)421-1363</t>
-  </si>
-  <si>
-    <t>001-589-721-9552x194</t>
-  </si>
-  <si>
-    <t>554.782.5657</t>
-  </si>
-  <si>
-    <t>001-884-554-7552x1925</t>
-  </si>
-  <si>
-    <t>790-424-7226x9157</t>
-  </si>
-  <si>
-    <t>(523)465-4268</t>
-  </si>
-  <si>
-    <t>001-791-676-9092x380</t>
-  </si>
-  <si>
-    <t>(299)520-3190x1394</t>
-  </si>
-  <si>
-    <t>639-578-8477x26324</t>
-  </si>
-  <si>
-    <t>+1-574-350-4818x156</t>
-  </si>
-  <si>
-    <t>Column1</t>
+    <t>Casey Washington</t>
+  </si>
+  <si>
+    <t>Dawn Scott</t>
+  </si>
+  <si>
+    <t>Brian Newman</t>
+  </si>
+  <si>
+    <t>Patricia Porter</t>
+  </si>
+  <si>
+    <t>George Wilkerson</t>
+  </si>
+  <si>
+    <t>Troy Snyder</t>
+  </si>
+  <si>
+    <t>David Rogers</t>
+  </si>
+  <si>
+    <t>Collin Sullivan</t>
+  </si>
+  <si>
+    <t>Kevin Mathis</t>
+  </si>
+  <si>
+    <t>James Jefferson</t>
+  </si>
+  <si>
+    <t>Jeffrey Morris</t>
+  </si>
+  <si>
+    <t>Traci Jacobson</t>
+  </si>
+  <si>
+    <t>Anthony Cruz</t>
+  </si>
+  <si>
+    <t>Nancy Norton</t>
+  </si>
+  <si>
+    <t>Stephanie Frost</t>
+  </si>
+  <si>
+    <t>Ellen Hendrix</t>
+  </si>
+  <si>
+    <t>Lauren Hopkins</t>
+  </si>
+  <si>
+    <t>Kevin Herrera</t>
+  </si>
+  <si>
+    <t>Joseph Ferguson</t>
+  </si>
+  <si>
+    <t>Joshua Nixon</t>
+  </si>
+  <si>
+    <t>Madeline Graves</t>
+  </si>
+  <si>
+    <t>Rodney Simmons</t>
+  </si>
+  <si>
+    <t>Joanne Thornton</t>
+  </si>
+  <si>
+    <t>Brooke Gonzalez</t>
+  </si>
+  <si>
+    <t>Jennifer Acosta</t>
+  </si>
+  <si>
+    <t>Joseph Green</t>
+  </si>
+  <si>
+    <t>Ashley Duarte</t>
+  </si>
+  <si>
+    <t>Karen Hendrix</t>
+  </si>
+  <si>
+    <t>Gregory Davis</t>
+  </si>
+  <si>
+    <t>William Powers</t>
+  </si>
+  <si>
+    <t>Michael Smith MD</t>
+  </si>
+  <si>
+    <t>Anthony Hall</t>
+  </si>
+  <si>
+    <t>Robert Holmes</t>
+  </si>
+  <si>
+    <t>Dawn Sanchez</t>
+  </si>
+  <si>
+    <t>Julie Young</t>
+  </si>
+  <si>
+    <t>Christina Mckay</t>
+  </si>
+  <si>
+    <t>Christopher Hartman</t>
+  </si>
+  <si>
+    <t>Ryan Bradley</t>
+  </si>
+  <si>
+    <t>Destiny Cunningham PhD</t>
+  </si>
+  <si>
+    <t>Travis Oneill</t>
+  </si>
+  <si>
+    <t>Melissa Tran</t>
+  </si>
+  <si>
+    <t>Yolanda Nichols</t>
+  </si>
+  <si>
+    <t>Michael Gordon</t>
+  </si>
+  <si>
+    <t>George West</t>
+  </si>
+  <si>
+    <t>Cindy Buchanan</t>
+  </si>
+  <si>
+    <t>Ronald Reed</t>
+  </si>
+  <si>
+    <t>Samantha Mendoza</t>
+  </si>
+  <si>
+    <t>Melody Giles</t>
+  </si>
+  <si>
+    <t>Nicole Dunn</t>
+  </si>
+  <si>
+    <t>John Moore</t>
+  </si>
+  <si>
+    <t>James White</t>
+  </si>
+  <si>
+    <t>Leslie Morales</t>
+  </si>
+  <si>
+    <t>Bailey Gomez</t>
+  </si>
+  <si>
+    <t>Bruce Thomas</t>
+  </si>
+  <si>
+    <t>Alexander Sullivan</t>
+  </si>
+  <si>
+    <t>Robin Hines</t>
+  </si>
+  <si>
+    <t>Rebecca Fuentes</t>
+  </si>
+  <si>
+    <t>Brandy Melton</t>
+  </si>
+  <si>
+    <t>Robert Clark</t>
+  </si>
+  <si>
+    <t>Katelyn Evans</t>
+  </si>
+  <si>
+    <t>Monica Smith</t>
+  </si>
+  <si>
+    <t>Christopher Gomez</t>
+  </si>
+  <si>
+    <t>Timothy Johnson</t>
+  </si>
+  <si>
+    <t>Alexander Dixon</t>
+  </si>
+  <si>
+    <t>Melanie Davis</t>
+  </si>
+  <si>
+    <t>Courtney Booth</t>
+  </si>
+  <si>
+    <t>Cory Watkins</t>
+  </si>
+  <si>
+    <t>Juan Carpenter</t>
+  </si>
+  <si>
+    <t>Erin Woods DDS</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>Michael Ford</t>
+  </si>
+  <si>
+    <t>Taylor Manning</t>
+  </si>
+  <si>
+    <t>Deborah Hines</t>
+  </si>
+  <si>
+    <t>Margaret Smith</t>
+  </si>
+  <si>
+    <t>Kelsey Wolf</t>
+  </si>
+  <si>
+    <t>Jennifer Hobbs</t>
+  </si>
+  <si>
+    <t>Laura Burke</t>
+  </si>
+  <si>
+    <t>Lauren Garcia</t>
+  </si>
+  <si>
+    <t>Rick Stafford</t>
+  </si>
+  <si>
+    <t>Susan Terry</t>
+  </si>
+  <si>
+    <t>Stephanie Jackson</t>
+  </si>
+  <si>
+    <t>Thomas Meyers DDS</t>
+  </si>
+  <si>
+    <t>Cindy Perez</t>
+  </si>
+  <si>
+    <t>James Stephens</t>
+  </si>
+  <si>
+    <t>Paula Mitchell</t>
+  </si>
+  <si>
+    <t>Juan Dunn</t>
+  </si>
+  <si>
+    <t>Michael Stephens</t>
+  </si>
+  <si>
+    <t>Chloe Trujillo</t>
+  </si>
+  <si>
+    <t>Jasmine Jones</t>
+  </si>
+  <si>
+    <t>Brian Sutton</t>
+  </si>
+  <si>
+    <t>Meagan Knapp</t>
+  </si>
+  <si>
+    <t>Jeffery Reyes</t>
+  </si>
+  <si>
+    <t>Anthony Thompson</t>
+  </si>
+  <si>
+    <t>Shannon Ramirez</t>
+  </si>
+  <si>
+    <t>Alan Moore</t>
+  </si>
+  <si>
+    <t>Mark Robinson</t>
+  </si>
+  <si>
+    <t>Vincent Bass</t>
+  </si>
+  <si>
+    <t>carsonheather@example.org</t>
+  </si>
+  <si>
+    <t>marylong@example.org</t>
+  </si>
+  <si>
+    <t>stevenbanks@example.com</t>
+  </si>
+  <si>
+    <t>christopher81@example.com</t>
+  </si>
+  <si>
+    <t>eglenn@example.net</t>
+  </si>
+  <si>
+    <t>jonesmolly@example.com</t>
+  </si>
+  <si>
+    <t>igreen@example.org</t>
+  </si>
+  <si>
+    <t>jonestara@example.org</t>
+  </si>
+  <si>
+    <t>jenniferdavis@example.net</t>
+  </si>
+  <si>
+    <t>jeffreybradley@example.com</t>
+  </si>
+  <si>
+    <t>gregoryweaver@example.net</t>
+  </si>
+  <si>
+    <t>kaitlynhernandez@example.org</t>
+  </si>
+  <si>
+    <t>cshea@example.com</t>
+  </si>
+  <si>
+    <t>david13@example.org</t>
+  </si>
+  <si>
+    <t>jillian68@example.net</t>
+  </si>
+  <si>
+    <t>julia32@example.net</t>
+  </si>
+  <si>
+    <t>ericwright@example.net</t>
+  </si>
+  <si>
+    <t>carolynevans@example.org</t>
+  </si>
+  <si>
+    <t>vbaird@example.org</t>
+  </si>
+  <si>
+    <t>ispencer@example.org</t>
+  </si>
+  <si>
+    <t>colemansabrina@example.net</t>
+  </si>
+  <si>
+    <t>hayeskimberly@example.net</t>
+  </si>
+  <si>
+    <t>caitlynburch@example.net</t>
+  </si>
+  <si>
+    <t>robertharris@example.com</t>
+  </si>
+  <si>
+    <t>markwest@example.com</t>
+  </si>
+  <si>
+    <t>gmichael@example.org</t>
+  </si>
+  <si>
+    <t>bassrobert@example.org</t>
+  </si>
+  <si>
+    <t>wilsonanne@example.net</t>
+  </si>
+  <si>
+    <t>amarshall@example.org</t>
+  </si>
+  <si>
+    <t>ssalinas@example.org</t>
+  </si>
+  <si>
+    <t>hunterkatherine@example.com</t>
+  </si>
+  <si>
+    <t>millslindsey@example.org</t>
+  </si>
+  <si>
+    <t>donna07@example.com</t>
+  </si>
+  <si>
+    <t>ganthony@example.org</t>
+  </si>
+  <si>
+    <t>angela22@example.com</t>
+  </si>
+  <si>
+    <t>warrenscott@example.net</t>
+  </si>
+  <si>
+    <t>graycynthia@example.com</t>
+  </si>
+  <si>
+    <t>kimberlyfowler@example.net</t>
+  </si>
+  <si>
+    <t>reedtara@example.org</t>
+  </si>
+  <si>
+    <t>william71@example.net</t>
+  </si>
+  <si>
+    <t>jmiller@example.org</t>
+  </si>
+  <si>
+    <t>unolan@example.net</t>
+  </si>
+  <si>
+    <t>ylewis@example.net</t>
+  </si>
+  <si>
+    <t>kproctor@example.net</t>
+  </si>
+  <si>
+    <t>jacksongloria@example.com</t>
+  </si>
+  <si>
+    <t>lewisstephen@example.org</t>
+  </si>
+  <si>
+    <t>donnaturner@example.net</t>
+  </si>
+  <si>
+    <t>cindy10@example.net</t>
+  </si>
+  <si>
+    <t>angeldavidson@example.org</t>
+  </si>
+  <si>
+    <t>kevin33@example.net</t>
+  </si>
+  <si>
+    <t>jennifer45@example.com</t>
+  </si>
+  <si>
+    <t>ogomez@example.com</t>
+  </si>
+  <si>
+    <t>rodgerslarry@example.org</t>
+  </si>
+  <si>
+    <t>gscott@example.org</t>
+  </si>
+  <si>
+    <t>patrickthompson@example.com</t>
+  </si>
+  <si>
+    <t>smithdavid@example.com</t>
+  </si>
+  <si>
+    <t>lynn70@example.org</t>
+  </si>
+  <si>
+    <t>lpeters@example.net</t>
+  </si>
+  <si>
+    <t>zgarrett@example.com</t>
+  </si>
+  <si>
+    <t>ywilson@example.net</t>
+  </si>
+  <si>
+    <t>lesliebrown@example.org</t>
+  </si>
+  <si>
+    <t>robertcallahan@example.org</t>
+  </si>
+  <si>
+    <t>fhughes@example.com</t>
+  </si>
+  <si>
+    <t>valenciamelissa@example.org</t>
+  </si>
+  <si>
+    <t>lzuniga@example.net</t>
+  </si>
+  <si>
+    <t>robingreen@example.net</t>
+  </si>
+  <si>
+    <t>zwalker@example.org</t>
+  </si>
+  <si>
+    <t>jeanne46@example.net</t>
+  </si>
+  <si>
+    <t>bankssusan@example.net</t>
+  </si>
+  <si>
+    <t>jose90@example.org</t>
+  </si>
+  <si>
+    <t>tbond@example.org</t>
+  </si>
+  <si>
+    <t>amy47@example.com</t>
+  </si>
+  <si>
+    <t>taylorriggs@example.com</t>
+  </si>
+  <si>
+    <t>aaron92@example.org</t>
+  </si>
+  <si>
+    <t>qryan@example.com</t>
+  </si>
+  <si>
+    <t>reginald11@example.net</t>
+  </si>
+  <si>
+    <t>lhall@example.org</t>
+  </si>
+  <si>
+    <t>hannahsingh@example.com</t>
+  </si>
+  <si>
+    <t>fernandezstephanie@example.org</t>
+  </si>
+  <si>
+    <t>michellescott@example.com</t>
+  </si>
+  <si>
+    <t>sandra54@example.net</t>
+  </si>
+  <si>
+    <t>zsmith@example.com</t>
+  </si>
+  <si>
+    <t>frylisa@example.org</t>
+  </si>
+  <si>
+    <t>cstanley@example.net</t>
+  </si>
+  <si>
+    <t>richardlee@example.org</t>
+  </si>
+  <si>
+    <t>smithjohn@example.com</t>
+  </si>
+  <si>
+    <t>hansoncaroline@example.net</t>
+  </si>
+  <si>
+    <t>ithompson@example.net</t>
+  </si>
+  <si>
+    <t>luisrice@example.com</t>
+  </si>
+  <si>
+    <t>amandariley@example.com</t>
+  </si>
+  <si>
+    <t>alexandra02@example.com</t>
+  </si>
+  <si>
+    <t>kristin83@example.com</t>
+  </si>
+  <si>
+    <t>martha66@example.com</t>
+  </si>
+  <si>
+    <t>bernard07@example.net</t>
+  </si>
+  <si>
+    <t>benjamin22@example.net</t>
+  </si>
+  <si>
+    <t>collierbryan@example.com</t>
+  </si>
+  <si>
+    <t>mwheeler@example.com</t>
+  </si>
+  <si>
+    <t>361.781.6803x85931</t>
+  </si>
+  <si>
+    <t>979.209.0506x716</t>
+  </si>
+  <si>
+    <t>+1-781-543-0724x1562</t>
+  </si>
+  <si>
+    <t>924.378.3783x0344</t>
+  </si>
+  <si>
+    <t>001-517-355-5598x341</t>
+  </si>
+  <si>
+    <t>(399)501-2523x2654</t>
+  </si>
+  <si>
+    <t>(419)550-8514x14096</t>
+  </si>
+  <si>
+    <t>997.799.2862x147</t>
+  </si>
+  <si>
+    <t>+1-427-424-5262x74820</t>
+  </si>
+  <si>
+    <t>836.482.5946x976</t>
+  </si>
+  <si>
+    <t>001-709-350-0823x9819</t>
+  </si>
+  <si>
+    <t>933.650.3945x232</t>
+  </si>
+  <si>
+    <t>001-533-613-9777</t>
+  </si>
+  <si>
+    <t>377.239.9739</t>
+  </si>
+  <si>
+    <t>649.272.4830</t>
+  </si>
+  <si>
+    <t>001-582-741-8194x569</t>
+  </si>
+  <si>
+    <t>999.446.7215x203</t>
+  </si>
+  <si>
+    <t>339-805-1263</t>
+  </si>
+  <si>
+    <t>503.915.6005x6231</t>
+  </si>
+  <si>
+    <t>272-853-9481x4985</t>
+  </si>
+  <si>
+    <t>001-424-385-0727x5553</t>
+  </si>
+  <si>
+    <t>432-579-8536x991</t>
+  </si>
+  <si>
+    <t>001-431-722-3481x781</t>
+  </si>
+  <si>
+    <t>+1-873-262-8167x610</t>
+  </si>
+  <si>
+    <t>264-805-3225x223</t>
+  </si>
+  <si>
+    <t>+1-552-669-0823x469</t>
+  </si>
+  <si>
+    <t>372-781-5771x235</t>
+  </si>
+  <si>
+    <t>225-779-9992x332</t>
+  </si>
+  <si>
+    <t>+1-450-845-2677</t>
+  </si>
+  <si>
+    <t>974-956-5913</t>
+  </si>
+  <si>
+    <t>001-905-903-8725x0426</t>
+  </si>
+  <si>
+    <t>476-342-0215x36746</t>
+  </si>
+  <si>
+    <t>443.760.0259</t>
+  </si>
+  <si>
+    <t>001-310-216-1682x38764</t>
+  </si>
+  <si>
+    <t>251-839-7377x74527</t>
+  </si>
+  <si>
+    <t>633-314-5530x3356</t>
+  </si>
+  <si>
+    <t>274.650.7120x05823</t>
+  </si>
+  <si>
+    <t>+1-730-296-2121x993</t>
+  </si>
+  <si>
+    <t>351.792.6973x08944</t>
+  </si>
+  <si>
+    <t>(484)323-1052x192</t>
+  </si>
+  <si>
+    <t>650-501-8425x743</t>
+  </si>
+  <si>
+    <t>(200)485-4067</t>
+  </si>
+  <si>
+    <t>+1-429-610-5491</t>
+  </si>
+  <si>
+    <t>(455)463-8114</t>
+  </si>
+  <si>
+    <t>(454)358-4859x870</t>
+  </si>
+  <si>
+    <t>240-407-8339</t>
+  </si>
+  <si>
+    <t>+1-709-683-8039x34477</t>
+  </si>
+  <si>
+    <t>001-781-219-7275</t>
+  </si>
+  <si>
+    <t>+1-420-971-5704x09428</t>
+  </si>
+  <si>
+    <t>4002651610</t>
+  </si>
+  <si>
+    <t>535.427.8878x61211</t>
+  </si>
+  <si>
+    <t>001-812-524-3176x5927</t>
+  </si>
+  <si>
+    <t>(845)383-9004x73821</t>
+  </si>
+  <si>
+    <t>+1-441-332-5261</t>
+  </si>
+  <si>
+    <t>+1-417-381-5214x66136</t>
+  </si>
+  <si>
+    <t>(313)729-6349x037</t>
+  </si>
+  <si>
+    <t>253-380-6478</t>
+  </si>
+  <si>
+    <t>555-957-8521x45768</t>
+  </si>
+  <si>
+    <t>+1-729-939-0050</t>
+  </si>
+  <si>
+    <t>(328)781-3686x91838</t>
+  </si>
+  <si>
+    <t>(315)912-9032</t>
+  </si>
+  <si>
+    <t>001-535-981-8835x81788</t>
+  </si>
+  <si>
+    <t>001-588-227-0782x416</t>
+  </si>
+  <si>
+    <t>6937325984</t>
+  </si>
+  <si>
+    <t>915-472-1971x086</t>
+  </si>
+  <si>
+    <t>295.345.6175</t>
+  </si>
+  <si>
+    <t>(870)272-7034x6122</t>
+  </si>
+  <si>
+    <t>+1-308-627-1172</t>
+  </si>
+  <si>
+    <t>(325)506-4853x755</t>
+  </si>
+  <si>
+    <t>208-343-1999x3905</t>
+  </si>
+  <si>
+    <t>(825)462-9403x097</t>
+  </si>
+  <si>
+    <t>001-222-263-7783</t>
+  </si>
+  <si>
+    <t>001-512-804-6555x43047</t>
+  </si>
+  <si>
+    <t>264.728.9786</t>
+  </si>
+  <si>
+    <t>+1-489-842-8977x0207</t>
+  </si>
+  <si>
+    <t>3989993927</t>
+  </si>
+  <si>
+    <t>648-340-8068</t>
+  </si>
+  <si>
+    <t>001-624-444-6030x404</t>
+  </si>
+  <si>
+    <t>+1-572-891-2434x3881</t>
+  </si>
+  <si>
+    <t>001-669-390-3251x24631</t>
+  </si>
+  <si>
+    <t>(616)325-1880</t>
+  </si>
+  <si>
+    <t>+1-327-461-5601x1036</t>
+  </si>
+  <si>
+    <t>(494)244-9978</t>
+  </si>
+  <si>
+    <t>001-493-687-6607x21984</t>
+  </si>
+  <si>
+    <t>701.769.1903</t>
+  </si>
+  <si>
+    <t>001-521-438-9026x2555</t>
+  </si>
+  <si>
+    <t>324-692-0397x399</t>
+  </si>
+  <si>
+    <t>+1-613-279-4664x0294</t>
+  </si>
+  <si>
+    <t>288.983.7571</t>
+  </si>
+  <si>
+    <t>334.605.3338x3217</t>
+  </si>
+  <si>
+    <t>(673)938-3105</t>
+  </si>
+  <si>
+    <t>001-296-885-4657x86549</t>
+  </si>
+  <si>
+    <t>(996)445-6888</t>
+  </si>
+  <si>
+    <t>+1-583-673-1806x2060</t>
+  </si>
+  <si>
+    <t>234.235.9517</t>
+  </si>
+  <si>
+    <t>435-645-4555x3284</t>
+  </si>
+  <si>
+    <t>262.977.8231</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,103 +969,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95BFB2B5-410A-4D15-852B-71E630D8830C}" name="Table1" displayName="Table1" ref="A1:F98" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F98" xr:uid="{95BFB2B5-410A-4D15-852B-71E630D8830C}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{63FD0FDA-8786-4777-AE7E-8143FA77C183}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F4FDDA58-BBCE-431A-8897-FC4771B87687}" name="EmpID"/>
-    <tableColumn id="3" xr3:uid="{EA95E9D0-3CD2-49DE-B20C-047C2FF77836}" name="DisplayName"/>
-    <tableColumn id="4" xr3:uid="{1174ACCF-0315-4F8A-A856-0280ECCE75EC}" name="UserPrincipalName"/>
-    <tableColumn id="5" xr3:uid="{A08C6AA7-E01F-42DE-B609-F09ED5C8779E}" name="UserPhoneNumber"/>
-    <tableColumn id="6" xr3:uid="{81C8F6BC-9FFF-4ED7-B98B-0201C4E7D979}" name="ManagerID"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1125,7 +1015,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1159,7 +1049,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1194,10 +1083,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1370,25 +1258,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>296</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1405,12 +1282,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>745</v>
+        <v>7673</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1422,15 +1299,15 @@
         <v>199</v>
       </c>
       <c r="F2">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9770</v>
+        <v>6897</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1442,15 +1319,15 @@
         <v>200</v>
       </c>
       <c r="F3">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7212</v>
+        <v>7565</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1462,15 +1339,15 @@
         <v>201</v>
       </c>
       <c r="F4">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7330</v>
+        <v>8075</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1482,15 +1359,15 @@
         <v>202</v>
       </c>
       <c r="F5">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5441</v>
+        <v>1943</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1502,15 +1379,15 @@
         <v>203</v>
       </c>
       <c r="F6">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4898</v>
+        <v>4670</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1522,15 +1399,15 @@
         <v>204</v>
       </c>
       <c r="F7">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7541</v>
+        <v>7259</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1542,15 +1419,15 @@
         <v>205</v>
       </c>
       <c r="F8">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2944</v>
+        <v>1914</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1562,15 +1439,15 @@
         <v>206</v>
       </c>
       <c r="F9">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7151</v>
+        <v>9328</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1582,15 +1459,15 @@
         <v>207</v>
       </c>
       <c r="F10">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5232</v>
+        <v>8585</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1602,15 +1479,15 @@
         <v>208</v>
       </c>
       <c r="F11">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2518</v>
+        <v>8699</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1622,15 +1499,15 @@
         <v>209</v>
       </c>
       <c r="F12">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4787</v>
+        <v>8180</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1642,15 +1519,15 @@
         <v>210</v>
       </c>
       <c r="F13">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6460</v>
+        <v>4536</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1662,15 +1539,15 @@
         <v>211</v>
       </c>
       <c r="F14">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6155</v>
+        <v>8625</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1682,15 +1559,15 @@
         <v>212</v>
       </c>
       <c r="F15">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6210</v>
+        <v>5569</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1702,15 +1579,15 @@
         <v>213</v>
       </c>
       <c r="F16">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5850</v>
+        <v>7070</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1722,15 +1599,15 @@
         <v>214</v>
       </c>
       <c r="F17">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4764</v>
+        <v>7544</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1742,15 +1619,15 @@
         <v>215</v>
       </c>
       <c r="F18">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1463</v>
+        <v>4424</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1762,15 +1639,15 @@
         <v>216</v>
       </c>
       <c r="F19">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>640</v>
+        <v>7558</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1782,15 +1659,15 @@
         <v>217</v>
       </c>
       <c r="F20">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3533</v>
+        <v>5388</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1802,15 +1679,15 @@
         <v>218</v>
       </c>
       <c r="F21">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9753</v>
+        <v>8814</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1822,15 +1699,15 @@
         <v>219</v>
       </c>
       <c r="F22">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2605</v>
+        <v>8653</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1842,15 +1719,15 @@
         <v>220</v>
       </c>
       <c r="F23">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6235</v>
+        <v>8724</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -1862,15 +1739,15 @@
         <v>221</v>
       </c>
       <c r="F24">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9663</v>
+        <v>5591</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -1882,15 +1759,15 @@
         <v>222</v>
       </c>
       <c r="F25">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3392</v>
+        <v>2335</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -1902,15 +1779,15 @@
         <v>223</v>
       </c>
       <c r="F26">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>7784</v>
+        <v>1485</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1922,15 +1799,15 @@
         <v>224</v>
       </c>
       <c r="F27">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1611</v>
+        <v>5605</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -1942,15 +1819,15 @@
         <v>225</v>
       </c>
       <c r="F28">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2817</v>
+        <v>7947</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -1962,15 +1839,15 @@
         <v>226</v>
       </c>
       <c r="F29">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1455</v>
+        <v>8563</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -1982,15 +1859,15 @@
         <v>227</v>
       </c>
       <c r="F30">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>3559</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -2002,15 +1879,15 @@
         <v>228</v>
       </c>
       <c r="F31">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5776</v>
+        <v>3343</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -2022,15 +1899,15 @@
         <v>229</v>
       </c>
       <c r="F32">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>7160</v>
+        <v>8530</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -2042,15 +1919,15 @@
         <v>230</v>
       </c>
       <c r="F33">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>4226</v>
+        <v>1192</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -2062,15 +1939,15 @@
         <v>231</v>
       </c>
       <c r="F34">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3142</v>
+        <v>545</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -2082,15 +1959,15 @@
         <v>232</v>
       </c>
       <c r="F35">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8138</v>
+        <v>8815</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -2102,15 +1979,15 @@
         <v>233</v>
       </c>
       <c r="F36">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1429</v>
+        <v>3514</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -2122,15 +1999,15 @@
         <v>234</v>
       </c>
       <c r="F37">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>7880</v>
+        <v>5034</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -2142,15 +2019,15 @@
         <v>235</v>
       </c>
       <c r="F38">
-        <v>9528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2761</v>
+        <v>2403</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -2162,15 +2039,15 @@
         <v>236</v>
       </c>
       <c r="F39">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7800</v>
+        <v>7086</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -2182,15 +2059,15 @@
         <v>237</v>
       </c>
       <c r="F40">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1057</v>
+        <v>3945</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -2202,15 +2079,15 @@
         <v>238</v>
       </c>
       <c r="F41">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6071</v>
+        <v>5870</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -2222,15 +2099,15 @@
         <v>239</v>
       </c>
       <c r="F42">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>684</v>
+        <v>8775</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -2242,15 +2119,15 @@
         <v>240</v>
       </c>
       <c r="F43">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>9928</v>
+        <v>4094</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -2262,15 +2139,15 @@
         <v>241</v>
       </c>
       <c r="F44">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7896</v>
+        <v>1619</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -2282,15 +2159,15 @@
         <v>242</v>
       </c>
       <c r="F45">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5768</v>
+        <v>7499</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -2302,15 +2179,15 @@
         <v>243</v>
       </c>
       <c r="F46">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1545</v>
+        <v>8439</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -2322,15 +2199,15 @@
         <v>244</v>
       </c>
       <c r="F47">
-        <v>9528</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6114</v>
+        <v>6547</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2342,15 +2219,15 @@
         <v>245</v>
       </c>
       <c r="F48">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7169</v>
+        <v>7918</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -2362,15 +2239,15 @@
         <v>246</v>
       </c>
       <c r="F49">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>573</v>
+        <v>783</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -2382,15 +2259,15 @@
         <v>247</v>
       </c>
       <c r="F50">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1437</v>
+        <v>2232</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
@@ -2402,15 +2279,15 @@
         <v>248</v>
       </c>
       <c r="F51">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>9274</v>
+        <v>7916</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -2422,15 +2299,15 @@
         <v>249</v>
       </c>
       <c r="F52">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>9480</v>
+        <v>1120</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -2442,15 +2319,15 @@
         <v>250</v>
       </c>
       <c r="F53">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6855</v>
+        <v>9057</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -2462,15 +2339,15 @@
         <v>251</v>
       </c>
       <c r="F54">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8899</v>
+        <v>8305</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -2482,15 +2359,15 @@
         <v>252</v>
       </c>
       <c r="F55">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6525</v>
+        <v>5744</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -2502,15 +2379,15 @@
         <v>253</v>
       </c>
       <c r="F56">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1446</v>
+        <v>337</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -2522,15 +2399,15 @@
         <v>254</v>
       </c>
       <c r="F57">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>2321</v>
+        <v>4309</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -2542,15 +2419,15 @@
         <v>255</v>
       </c>
       <c r="F58">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6202</v>
+        <v>4536</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -2562,15 +2439,15 @@
         <v>256</v>
       </c>
       <c r="F59">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3550</v>
+        <v>5452</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -2582,15 +2459,15 @@
         <v>257</v>
       </c>
       <c r="F60">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5745</v>
+        <v>3030</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -2602,15 +2479,15 @@
         <v>258</v>
       </c>
       <c r="F61">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>9519</v>
+        <v>4438</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -2622,15 +2499,15 @@
         <v>259</v>
       </c>
       <c r="F62">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3820</v>
+        <v>6564</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -2642,15 +2519,15 @@
         <v>260</v>
       </c>
       <c r="F63">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>9926</v>
+        <v>4220</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
@@ -2662,15 +2539,15 @@
         <v>261</v>
       </c>
       <c r="F64">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>464</v>
+        <v>754</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -2682,15 +2559,15 @@
         <v>262</v>
       </c>
       <c r="F65">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>4995</v>
+        <v>3935</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
@@ -2702,15 +2579,15 @@
         <v>263</v>
       </c>
       <c r="F66">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>3912</v>
+        <v>6734</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
@@ -2722,15 +2599,15 @@
         <v>264</v>
       </c>
       <c r="F67">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6707</v>
+        <v>7917</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
@@ -2742,15 +2619,15 @@
         <v>265</v>
       </c>
       <c r="F68">
-        <v>9528</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>3950</v>
+        <v>7246</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -2762,15 +2639,15 @@
         <v>266</v>
       </c>
       <c r="F69">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5391</v>
+        <v>9440</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
@@ -2782,15 +2659,15 @@
         <v>267</v>
       </c>
       <c r="F70">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>336</v>
+        <v>9798</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
@@ -2802,15 +2679,15 @@
         <v>268</v>
       </c>
       <c r="F71">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2343</v>
+        <v>4390</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -2822,15 +2699,15 @@
         <v>269</v>
       </c>
       <c r="F72">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2754</v>
+        <v>5734</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -2842,15 +2719,15 @@
         <v>270</v>
       </c>
       <c r="F73">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>7930</v>
+        <v>2388</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -2862,15 +2739,15 @@
         <v>271</v>
       </c>
       <c r="F74">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>4656</v>
+        <v>3472</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -2882,15 +2759,15 @@
         <v>272</v>
       </c>
       <c r="F75">
-        <v>7338</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9109</v>
+        <v>9884</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -2902,15 +2779,15 @@
         <v>273</v>
       </c>
       <c r="F76">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>9227</v>
+        <v>3373</v>
       </c>
       <c r="C77" t="s">
         <v>80</v>
@@ -2922,15 +2799,15 @@
         <v>274</v>
       </c>
       <c r="F77">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5946</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>2401</v>
+        <v>7704</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -2942,15 +2819,15 @@
         <v>275</v>
       </c>
       <c r="F78">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>9396</v>
+        <v>1841</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -2962,15 +2839,15 @@
         <v>276</v>
       </c>
       <c r="F79">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5246</v>
+        <v>7199</v>
       </c>
       <c r="C80" t="s">
         <v>83</v>
@@ -2982,15 +2859,15 @@
         <v>277</v>
       </c>
       <c r="F80">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>661</v>
+        <v>9725</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
@@ -3002,15 +2879,15 @@
         <v>278</v>
       </c>
       <c r="F81">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>2368</v>
+        <v>962</v>
       </c>
       <c r="C82" t="s">
         <v>85</v>
@@ -3022,15 +2899,15 @@
         <v>279</v>
       </c>
       <c r="F82">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>2512</v>
+        <v>5359</v>
       </c>
       <c r="C83" t="s">
         <v>86</v>
@@ -3042,15 +2919,15 @@
         <v>280</v>
       </c>
       <c r="F83">
-        <v>4662</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>9920</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
@@ -3062,15 +2939,15 @@
         <v>281</v>
       </c>
       <c r="F84">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>3592</v>
+        <v>2194</v>
       </c>
       <c r="C85" t="s">
         <v>88</v>
@@ -3082,15 +2959,15 @@
         <v>282</v>
       </c>
       <c r="F85">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6678</v>
+        <v>9802</v>
       </c>
       <c r="C86" t="s">
         <v>89</v>
@@ -3102,15 +2979,15 @@
         <v>283</v>
       </c>
       <c r="F86">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>9874</v>
+        <v>7476</v>
       </c>
       <c r="C87" t="s">
         <v>90</v>
@@ -3122,15 +2999,15 @@
         <v>284</v>
       </c>
       <c r="F87">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>7551</v>
+        <v>1316</v>
       </c>
       <c r="C88" t="s">
         <v>91</v>
@@ -3142,15 +3019,15 @@
         <v>285</v>
       </c>
       <c r="F88">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>8739</v>
+        <v>6852</v>
       </c>
       <c r="C89" t="s">
         <v>92</v>
@@ -3162,15 +3039,15 @@
         <v>286</v>
       </c>
       <c r="F89">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1217</v>
+        <v>4707</v>
       </c>
       <c r="C90" t="s">
         <v>93</v>
@@ -3182,15 +3059,15 @@
         <v>287</v>
       </c>
       <c r="F90">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6085</v>
+        <v>5499</v>
       </c>
       <c r="C91" t="s">
         <v>94</v>
@@ -3202,15 +3079,15 @@
         <v>288</v>
       </c>
       <c r="F91">
-        <v>9528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6367</v>
+        <v>4637</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
@@ -3222,15 +3099,15 @@
         <v>289</v>
       </c>
       <c r="F92">
-        <v>8079</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6853</v>
+        <v>4198</v>
       </c>
       <c r="C93" t="s">
         <v>96</v>
@@ -3242,15 +3119,15 @@
         <v>290</v>
       </c>
       <c r="F93">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1224</v>
+        <v>8026</v>
       </c>
       <c r="C94" t="s">
         <v>97</v>
@@ -3262,15 +3139,15 @@
         <v>291</v>
       </c>
       <c r="F94">
-        <v>7788</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>664</v>
+        <v>6797</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
@@ -3282,15 +3159,15 @@
         <v>292</v>
       </c>
       <c r="F95">
-        <v>9528</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>2684</v>
+        <v>6765</v>
       </c>
       <c r="C96" t="s">
         <v>99</v>
@@ -3302,15 +3179,15 @@
         <v>293</v>
       </c>
       <c r="F96">
-        <v>4904</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5074</v>
+        <v>9380</v>
       </c>
       <c r="C97" t="s">
         <v>100</v>
@@ -3322,15 +3199,15 @@
         <v>294</v>
       </c>
       <c r="F97">
-        <v>5114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>903</v>
+        <v>8087</v>
       </c>
       <c r="C98" t="s">
         <v>101</v>
@@ -3342,13 +3219,10 @@
         <v>295</v>
       </c>
       <c r="F98">
-        <v>1354</v>
+        <v>5212</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Visualization/PowerBI/Data/EmployeesDetails.xlsx
+++ b/Visualization/PowerBI/Data/EmployeesDetails.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seder\Documents\GitHub\Data-Analysis\Reports(MS-Excel&amp;Word)\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623AC8DD-1275-40AA-8562-1BA100D46706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="309">
   <si>
     <t>EmpID</t>
   </si>
@@ -31,884 +37,923 @@
     <t>ManagerID</t>
   </si>
   <si>
-    <t>Casey Washington</t>
-  </si>
-  <si>
-    <t>Dawn Scott</t>
-  </si>
-  <si>
-    <t>Brian Newman</t>
-  </si>
-  <si>
-    <t>Patricia Porter</t>
-  </si>
-  <si>
-    <t>George Wilkerson</t>
-  </si>
-  <si>
-    <t>Troy Snyder</t>
-  </si>
-  <si>
-    <t>David Rogers</t>
-  </si>
-  <si>
-    <t>Collin Sullivan</t>
-  </si>
-  <si>
-    <t>Kevin Mathis</t>
-  </si>
-  <si>
-    <t>James Jefferson</t>
-  </si>
-  <si>
-    <t>Jeffrey Morris</t>
-  </si>
-  <si>
-    <t>Traci Jacobson</t>
-  </si>
-  <si>
-    <t>Anthony Cruz</t>
-  </si>
-  <si>
-    <t>Nancy Norton</t>
-  </si>
-  <si>
-    <t>Stephanie Frost</t>
-  </si>
-  <si>
-    <t>Ellen Hendrix</t>
-  </si>
-  <si>
-    <t>Lauren Hopkins</t>
-  </si>
-  <si>
-    <t>Kevin Herrera</t>
-  </si>
-  <si>
-    <t>Joseph Ferguson</t>
-  </si>
-  <si>
-    <t>Joshua Nixon</t>
-  </si>
-  <si>
-    <t>Madeline Graves</t>
-  </si>
-  <si>
-    <t>Rodney Simmons</t>
-  </si>
-  <si>
-    <t>Joanne Thornton</t>
-  </si>
-  <si>
-    <t>Brooke Gonzalez</t>
-  </si>
-  <si>
-    <t>Jennifer Acosta</t>
-  </si>
-  <si>
-    <t>Joseph Green</t>
-  </si>
-  <si>
-    <t>Ashley Duarte</t>
-  </si>
-  <si>
-    <t>Karen Hendrix</t>
-  </si>
-  <si>
-    <t>Gregory Davis</t>
-  </si>
-  <si>
-    <t>William Powers</t>
-  </si>
-  <si>
-    <t>Michael Smith MD</t>
-  </si>
-  <si>
-    <t>Anthony Hall</t>
-  </si>
-  <si>
-    <t>Robert Holmes</t>
-  </si>
-  <si>
-    <t>Dawn Sanchez</t>
-  </si>
-  <si>
-    <t>Julie Young</t>
-  </si>
-  <si>
-    <t>Christina Mckay</t>
-  </si>
-  <si>
-    <t>Christopher Hartman</t>
-  </si>
-  <si>
-    <t>Ryan Bradley</t>
-  </si>
-  <si>
-    <t>Destiny Cunningham PhD</t>
-  </si>
-  <si>
-    <t>Travis Oneill</t>
-  </si>
-  <si>
-    <t>Melissa Tran</t>
-  </si>
-  <si>
-    <t>Yolanda Nichols</t>
-  </si>
-  <si>
-    <t>Michael Gordon</t>
-  </si>
-  <si>
-    <t>George West</t>
-  </si>
-  <si>
-    <t>Cindy Buchanan</t>
-  </si>
-  <si>
-    <t>Ronald Reed</t>
-  </si>
-  <si>
-    <t>Samantha Mendoza</t>
-  </si>
-  <si>
-    <t>Melody Giles</t>
-  </si>
-  <si>
-    <t>Nicole Dunn</t>
-  </si>
-  <si>
-    <t>John Moore</t>
-  </si>
-  <si>
-    <t>James White</t>
-  </si>
-  <si>
-    <t>Leslie Morales</t>
-  </si>
-  <si>
-    <t>Bailey Gomez</t>
-  </si>
-  <si>
-    <t>Bruce Thomas</t>
-  </si>
-  <si>
-    <t>Alexander Sullivan</t>
-  </si>
-  <si>
-    <t>Robin Hines</t>
-  </si>
-  <si>
-    <t>Rebecca Fuentes</t>
-  </si>
-  <si>
-    <t>Brandy Melton</t>
-  </si>
-  <si>
-    <t>Robert Clark</t>
-  </si>
-  <si>
-    <t>Katelyn Evans</t>
-  </si>
-  <si>
-    <t>Monica Smith</t>
-  </si>
-  <si>
-    <t>Christopher Gomez</t>
-  </si>
-  <si>
-    <t>Timothy Johnson</t>
-  </si>
-  <si>
-    <t>Alexander Dixon</t>
-  </si>
-  <si>
-    <t>Melanie Davis</t>
-  </si>
-  <si>
-    <t>Courtney Booth</t>
-  </si>
-  <si>
-    <t>Cory Watkins</t>
-  </si>
-  <si>
-    <t>Juan Carpenter</t>
-  </si>
-  <si>
-    <t>Erin Woods DDS</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>Michael Ford</t>
-  </si>
-  <si>
-    <t>Taylor Manning</t>
-  </si>
-  <si>
-    <t>Deborah Hines</t>
-  </si>
-  <si>
-    <t>Margaret Smith</t>
-  </si>
-  <si>
-    <t>Kelsey Wolf</t>
-  </si>
-  <si>
-    <t>Jennifer Hobbs</t>
-  </si>
-  <si>
-    <t>Laura Burke</t>
-  </si>
-  <si>
-    <t>Lauren Garcia</t>
-  </si>
-  <si>
-    <t>Rick Stafford</t>
-  </si>
-  <si>
-    <t>Susan Terry</t>
-  </si>
-  <si>
-    <t>Stephanie Jackson</t>
-  </si>
-  <si>
-    <t>Thomas Meyers DDS</t>
-  </si>
-  <si>
-    <t>Cindy Perez</t>
-  </si>
-  <si>
-    <t>James Stephens</t>
-  </si>
-  <si>
-    <t>Paula Mitchell</t>
-  </si>
-  <si>
-    <t>Juan Dunn</t>
-  </si>
-  <si>
-    <t>Michael Stephens</t>
-  </si>
-  <si>
-    <t>Chloe Trujillo</t>
-  </si>
-  <si>
-    <t>Jasmine Jones</t>
-  </si>
-  <si>
-    <t>Brian Sutton</t>
-  </si>
-  <si>
-    <t>Meagan Knapp</t>
-  </si>
-  <si>
-    <t>Jeffery Reyes</t>
-  </si>
-  <si>
-    <t>Anthony Thompson</t>
-  </si>
-  <si>
-    <t>Shannon Ramirez</t>
-  </si>
-  <si>
-    <t>Alan Moore</t>
-  </si>
-  <si>
-    <t>Mark Robinson</t>
-  </si>
-  <si>
-    <t>Vincent Bass</t>
-  </si>
-  <si>
-    <t>carsonheather@example.org</t>
-  </si>
-  <si>
-    <t>marylong@example.org</t>
-  </si>
-  <si>
-    <t>stevenbanks@example.com</t>
-  </si>
-  <si>
-    <t>christopher81@example.com</t>
-  </si>
-  <si>
-    <t>eglenn@example.net</t>
-  </si>
-  <si>
-    <t>jonesmolly@example.com</t>
-  </si>
-  <si>
-    <t>igreen@example.org</t>
-  </si>
-  <si>
-    <t>jonestara@example.org</t>
-  </si>
-  <si>
-    <t>jenniferdavis@example.net</t>
-  </si>
-  <si>
-    <t>jeffreybradley@example.com</t>
-  </si>
-  <si>
-    <t>gregoryweaver@example.net</t>
-  </si>
-  <si>
-    <t>kaitlynhernandez@example.org</t>
-  </si>
-  <si>
-    <t>cshea@example.com</t>
-  </si>
-  <si>
-    <t>david13@example.org</t>
-  </si>
-  <si>
-    <t>jillian68@example.net</t>
-  </si>
-  <si>
-    <t>julia32@example.net</t>
-  </si>
-  <si>
-    <t>ericwright@example.net</t>
-  </si>
-  <si>
-    <t>carolynevans@example.org</t>
-  </si>
-  <si>
-    <t>vbaird@example.org</t>
-  </si>
-  <si>
-    <t>ispencer@example.org</t>
-  </si>
-  <si>
-    <t>colemansabrina@example.net</t>
-  </si>
-  <si>
-    <t>hayeskimberly@example.net</t>
-  </si>
-  <si>
-    <t>caitlynburch@example.net</t>
-  </si>
-  <si>
-    <t>robertharris@example.com</t>
-  </si>
-  <si>
-    <t>markwest@example.com</t>
-  </si>
-  <si>
-    <t>gmichael@example.org</t>
-  </si>
-  <si>
-    <t>bassrobert@example.org</t>
-  </si>
-  <si>
-    <t>wilsonanne@example.net</t>
-  </si>
-  <si>
-    <t>amarshall@example.org</t>
-  </si>
-  <si>
-    <t>ssalinas@example.org</t>
-  </si>
-  <si>
-    <t>hunterkatherine@example.com</t>
-  </si>
-  <si>
-    <t>millslindsey@example.org</t>
-  </si>
-  <si>
-    <t>donna07@example.com</t>
-  </si>
-  <si>
-    <t>ganthony@example.org</t>
-  </si>
-  <si>
-    <t>angela22@example.com</t>
-  </si>
-  <si>
-    <t>warrenscott@example.net</t>
-  </si>
-  <si>
-    <t>graycynthia@example.com</t>
-  </si>
-  <si>
-    <t>kimberlyfowler@example.net</t>
-  </si>
-  <si>
-    <t>reedtara@example.org</t>
-  </si>
-  <si>
-    <t>william71@example.net</t>
-  </si>
-  <si>
-    <t>jmiller@example.org</t>
-  </si>
-  <si>
-    <t>unolan@example.net</t>
-  </si>
-  <si>
-    <t>ylewis@example.net</t>
-  </si>
-  <si>
-    <t>kproctor@example.net</t>
-  </si>
-  <si>
-    <t>jacksongloria@example.com</t>
-  </si>
-  <si>
-    <t>lewisstephen@example.org</t>
-  </si>
-  <si>
-    <t>donnaturner@example.net</t>
-  </si>
-  <si>
-    <t>cindy10@example.net</t>
-  </si>
-  <si>
-    <t>angeldavidson@example.org</t>
-  </si>
-  <si>
-    <t>kevin33@example.net</t>
-  </si>
-  <si>
-    <t>jennifer45@example.com</t>
-  </si>
-  <si>
-    <t>ogomez@example.com</t>
-  </si>
-  <si>
-    <t>rodgerslarry@example.org</t>
-  </si>
-  <si>
-    <t>gscott@example.org</t>
-  </si>
-  <si>
-    <t>patrickthompson@example.com</t>
-  </si>
-  <si>
-    <t>smithdavid@example.com</t>
-  </si>
-  <si>
-    <t>lynn70@example.org</t>
-  </si>
-  <si>
-    <t>lpeters@example.net</t>
-  </si>
-  <si>
-    <t>zgarrett@example.com</t>
-  </si>
-  <si>
-    <t>ywilson@example.net</t>
-  </si>
-  <si>
-    <t>lesliebrown@example.org</t>
-  </si>
-  <si>
-    <t>robertcallahan@example.org</t>
-  </si>
-  <si>
-    <t>fhughes@example.com</t>
-  </si>
-  <si>
-    <t>valenciamelissa@example.org</t>
-  </si>
-  <si>
-    <t>lzuniga@example.net</t>
-  </si>
-  <si>
-    <t>robingreen@example.net</t>
-  </si>
-  <si>
-    <t>zwalker@example.org</t>
-  </si>
-  <si>
-    <t>jeanne46@example.net</t>
-  </si>
-  <si>
-    <t>bankssusan@example.net</t>
-  </si>
-  <si>
-    <t>jose90@example.org</t>
-  </si>
-  <si>
-    <t>tbond@example.org</t>
-  </si>
-  <si>
-    <t>amy47@example.com</t>
-  </si>
-  <si>
-    <t>taylorriggs@example.com</t>
-  </si>
-  <si>
-    <t>aaron92@example.org</t>
-  </si>
-  <si>
-    <t>qryan@example.com</t>
-  </si>
-  <si>
-    <t>reginald11@example.net</t>
-  </si>
-  <si>
-    <t>lhall@example.org</t>
-  </si>
-  <si>
-    <t>hannahsingh@example.com</t>
-  </si>
-  <si>
-    <t>fernandezstephanie@example.org</t>
-  </si>
-  <si>
-    <t>michellescott@example.com</t>
-  </si>
-  <si>
-    <t>sandra54@example.net</t>
-  </si>
-  <si>
-    <t>zsmith@example.com</t>
-  </si>
-  <si>
-    <t>frylisa@example.org</t>
-  </si>
-  <si>
-    <t>cstanley@example.net</t>
-  </si>
-  <si>
-    <t>richardlee@example.org</t>
-  </si>
-  <si>
-    <t>smithjohn@example.com</t>
-  </si>
-  <si>
-    <t>hansoncaroline@example.net</t>
-  </si>
-  <si>
-    <t>ithompson@example.net</t>
-  </si>
-  <si>
-    <t>luisrice@example.com</t>
-  </si>
-  <si>
-    <t>amandariley@example.com</t>
-  </si>
-  <si>
-    <t>alexandra02@example.com</t>
-  </si>
-  <si>
-    <t>kristin83@example.com</t>
-  </si>
-  <si>
-    <t>martha66@example.com</t>
-  </si>
-  <si>
-    <t>bernard07@example.net</t>
-  </si>
-  <si>
-    <t>benjamin22@example.net</t>
-  </si>
-  <si>
-    <t>collierbryan@example.com</t>
-  </si>
-  <si>
-    <t>mwheeler@example.com</t>
-  </si>
-  <si>
-    <t>361.781.6803x85931</t>
-  </si>
-  <si>
-    <t>979.209.0506x716</t>
-  </si>
-  <si>
-    <t>+1-781-543-0724x1562</t>
-  </si>
-  <si>
-    <t>924.378.3783x0344</t>
-  </si>
-  <si>
-    <t>001-517-355-5598x341</t>
-  </si>
-  <si>
-    <t>(399)501-2523x2654</t>
-  </si>
-  <si>
-    <t>(419)550-8514x14096</t>
-  </si>
-  <si>
-    <t>997.799.2862x147</t>
-  </si>
-  <si>
-    <t>+1-427-424-5262x74820</t>
-  </si>
-  <si>
-    <t>836.482.5946x976</t>
-  </si>
-  <si>
-    <t>001-709-350-0823x9819</t>
-  </si>
-  <si>
-    <t>933.650.3945x232</t>
-  </si>
-  <si>
-    <t>001-533-613-9777</t>
-  </si>
-  <si>
-    <t>377.239.9739</t>
-  </si>
-  <si>
-    <t>649.272.4830</t>
-  </si>
-  <si>
-    <t>001-582-741-8194x569</t>
-  </si>
-  <si>
-    <t>999.446.7215x203</t>
-  </si>
-  <si>
-    <t>339-805-1263</t>
-  </si>
-  <si>
-    <t>503.915.6005x6231</t>
-  </si>
-  <si>
-    <t>272-853-9481x4985</t>
-  </si>
-  <si>
-    <t>001-424-385-0727x5553</t>
-  </si>
-  <si>
-    <t>432-579-8536x991</t>
-  </si>
-  <si>
-    <t>001-431-722-3481x781</t>
-  </si>
-  <si>
-    <t>+1-873-262-8167x610</t>
-  </si>
-  <si>
-    <t>264-805-3225x223</t>
-  </si>
-  <si>
-    <t>+1-552-669-0823x469</t>
-  </si>
-  <si>
-    <t>372-781-5771x235</t>
-  </si>
-  <si>
-    <t>225-779-9992x332</t>
-  </si>
-  <si>
-    <t>+1-450-845-2677</t>
-  </si>
-  <si>
-    <t>974-956-5913</t>
-  </si>
-  <si>
-    <t>001-905-903-8725x0426</t>
-  </si>
-  <si>
-    <t>476-342-0215x36746</t>
-  </si>
-  <si>
-    <t>443.760.0259</t>
-  </si>
-  <si>
-    <t>001-310-216-1682x38764</t>
-  </si>
-  <si>
-    <t>251-839-7377x74527</t>
-  </si>
-  <si>
-    <t>633-314-5530x3356</t>
-  </si>
-  <si>
-    <t>274.650.7120x05823</t>
-  </si>
-  <si>
-    <t>+1-730-296-2121x993</t>
-  </si>
-  <si>
-    <t>351.792.6973x08944</t>
-  </si>
-  <si>
-    <t>(484)323-1052x192</t>
-  </si>
-  <si>
-    <t>650-501-8425x743</t>
-  </si>
-  <si>
-    <t>(200)485-4067</t>
-  </si>
-  <si>
-    <t>+1-429-610-5491</t>
-  </si>
-  <si>
-    <t>(455)463-8114</t>
-  </si>
-  <si>
-    <t>(454)358-4859x870</t>
-  </si>
-  <si>
-    <t>240-407-8339</t>
-  </si>
-  <si>
-    <t>+1-709-683-8039x34477</t>
-  </si>
-  <si>
-    <t>001-781-219-7275</t>
-  </si>
-  <si>
-    <t>+1-420-971-5704x09428</t>
-  </si>
-  <si>
-    <t>4002651610</t>
-  </si>
-  <si>
-    <t>535.427.8878x61211</t>
-  </si>
-  <si>
-    <t>001-812-524-3176x5927</t>
-  </si>
-  <si>
-    <t>(845)383-9004x73821</t>
-  </si>
-  <si>
-    <t>+1-441-332-5261</t>
-  </si>
-  <si>
-    <t>+1-417-381-5214x66136</t>
-  </si>
-  <si>
-    <t>(313)729-6349x037</t>
-  </si>
-  <si>
-    <t>253-380-6478</t>
-  </si>
-  <si>
-    <t>555-957-8521x45768</t>
-  </si>
-  <si>
-    <t>+1-729-939-0050</t>
-  </si>
-  <si>
-    <t>(328)781-3686x91838</t>
-  </si>
-  <si>
-    <t>(315)912-9032</t>
-  </si>
-  <si>
-    <t>001-535-981-8835x81788</t>
-  </si>
-  <si>
-    <t>001-588-227-0782x416</t>
-  </si>
-  <si>
-    <t>6937325984</t>
-  </si>
-  <si>
-    <t>915-472-1971x086</t>
-  </si>
-  <si>
-    <t>295.345.6175</t>
-  </si>
-  <si>
-    <t>(870)272-7034x6122</t>
-  </si>
-  <si>
-    <t>+1-308-627-1172</t>
-  </si>
-  <si>
-    <t>(325)506-4853x755</t>
-  </si>
-  <si>
-    <t>208-343-1999x3905</t>
-  </si>
-  <si>
-    <t>(825)462-9403x097</t>
-  </si>
-  <si>
-    <t>001-222-263-7783</t>
-  </si>
-  <si>
-    <t>001-512-804-6555x43047</t>
-  </si>
-  <si>
-    <t>264.728.9786</t>
-  </si>
-  <si>
-    <t>+1-489-842-8977x0207</t>
-  </si>
-  <si>
-    <t>3989993927</t>
-  </si>
-  <si>
-    <t>648-340-8068</t>
-  </si>
-  <si>
-    <t>001-624-444-6030x404</t>
-  </si>
-  <si>
-    <t>+1-572-891-2434x3881</t>
-  </si>
-  <si>
-    <t>001-669-390-3251x24631</t>
-  </si>
-  <si>
-    <t>(616)325-1880</t>
-  </si>
-  <si>
-    <t>+1-327-461-5601x1036</t>
-  </si>
-  <si>
-    <t>(494)244-9978</t>
-  </si>
-  <si>
-    <t>001-493-687-6607x21984</t>
-  </si>
-  <si>
-    <t>701.769.1903</t>
-  </si>
-  <si>
-    <t>001-521-438-9026x2555</t>
-  </si>
-  <si>
-    <t>324-692-0397x399</t>
-  </si>
-  <si>
-    <t>+1-613-279-4664x0294</t>
-  </si>
-  <si>
-    <t>288.983.7571</t>
-  </si>
-  <si>
-    <t>334.605.3338x3217</t>
-  </si>
-  <si>
-    <t>(673)938-3105</t>
-  </si>
-  <si>
-    <t>001-296-885-4657x86549</t>
-  </si>
-  <si>
-    <t>(996)445-6888</t>
-  </si>
-  <si>
-    <t>+1-583-673-1806x2060</t>
-  </si>
-  <si>
-    <t>234.235.9517</t>
-  </si>
-  <si>
-    <t>435-645-4555x3284</t>
-  </si>
-  <si>
-    <t>262.977.8231</t>
+    <t>Elizabeth Bartlett</t>
+  </si>
+  <si>
+    <t>Jason Mendoza</t>
+  </si>
+  <si>
+    <t>Philip Rodriguez</t>
+  </si>
+  <si>
+    <t>John Campbell</t>
+  </si>
+  <si>
+    <t>Christine Black</t>
+  </si>
+  <si>
+    <t>Heidi Smith</t>
+  </si>
+  <si>
+    <t>Jeffrey Ramos</t>
+  </si>
+  <si>
+    <t>Terry Mercado</t>
+  </si>
+  <si>
+    <t>Justin Garcia</t>
+  </si>
+  <si>
+    <t>Patrick Fisher</t>
+  </si>
+  <si>
+    <t>Brandi Santiago</t>
+  </si>
+  <si>
+    <t>Jamie Powers</t>
+  </si>
+  <si>
+    <t>Veronica Garcia</t>
+  </si>
+  <si>
+    <t>Dan Hamilton</t>
+  </si>
+  <si>
+    <t>Stacey Henderson</t>
+  </si>
+  <si>
+    <t>George Fisher</t>
+  </si>
+  <si>
+    <t>Daniel Arnold</t>
+  </si>
+  <si>
+    <t>Sheryl Spencer</t>
+  </si>
+  <si>
+    <t>Joseph Stark</t>
+  </si>
+  <si>
+    <t>Madeline Flores</t>
+  </si>
+  <si>
+    <t>Brian White</t>
+  </si>
+  <si>
+    <t>Valerie Ross</t>
+  </si>
+  <si>
+    <t>Megan Green</t>
+  </si>
+  <si>
+    <t>Patrick Hudson</t>
+  </si>
+  <si>
+    <t>Katie Williams</t>
+  </si>
+  <si>
+    <t>Carolyn Lowe</t>
+  </si>
+  <si>
+    <t>Jennifer Johnson</t>
+  </si>
+  <si>
+    <t>Gail Clark</t>
+  </si>
+  <si>
+    <t>Michelle Williams</t>
+  </si>
+  <si>
+    <t>John West</t>
+  </si>
+  <si>
+    <t>Brandon Marshall</t>
+  </si>
+  <si>
+    <t>Kristen Brown</t>
+  </si>
+  <si>
+    <t>Russell Jordan</t>
+  </si>
+  <si>
+    <t>Melinda Quinn</t>
+  </si>
+  <si>
+    <t>Glenn Odom</t>
+  </si>
+  <si>
+    <t>Jimmy Kemp</t>
+  </si>
+  <si>
+    <t>Taylor Irwin</t>
+  </si>
+  <si>
+    <t>Jose Li</t>
+  </si>
+  <si>
+    <t>Joyce Baker</t>
+  </si>
+  <si>
+    <t>Johnny Gates</t>
+  </si>
+  <si>
+    <t>Melissa Suarez</t>
+  </si>
+  <si>
+    <t>Mr. Charles Thomas</t>
+  </si>
+  <si>
+    <t>Marc Johnson</t>
+  </si>
+  <si>
+    <t>Danielle Harris</t>
+  </si>
+  <si>
+    <t>Nancy Davis</t>
+  </si>
+  <si>
+    <t>Monique Parker</t>
+  </si>
+  <si>
+    <t>Brandon Miller</t>
+  </si>
+  <si>
+    <t>Jessica Cabrera</t>
+  </si>
+  <si>
+    <t>Jennifer Compton</t>
+  </si>
+  <si>
+    <t>Mary Armstrong</t>
+  </si>
+  <si>
+    <t>Daniel Keller</t>
+  </si>
+  <si>
+    <t>Katherine Holmes</t>
+  </si>
+  <si>
+    <t>John Hill</t>
+  </si>
+  <si>
+    <t>Richard Carter</t>
+  </si>
+  <si>
+    <t>Taylor Mclaughlin</t>
+  </si>
+  <si>
+    <t>Katherine Jensen</t>
+  </si>
+  <si>
+    <t>Kelly Horton</t>
+  </si>
+  <si>
+    <t>Daniel King</t>
+  </si>
+  <si>
+    <t>Hayley Fields</t>
+  </si>
+  <si>
+    <t>Olivia Page</t>
+  </si>
+  <si>
+    <t>Robert Cline</t>
+  </si>
+  <si>
+    <t>Michael Green</t>
+  </si>
+  <si>
+    <t>Cassandra Ford</t>
+  </si>
+  <si>
+    <t>Jason Stewart</t>
+  </si>
+  <si>
+    <t>Emily Flores</t>
+  </si>
+  <si>
+    <t>Brandy Griffith</t>
+  </si>
+  <si>
+    <t>Steven Gonzalez</t>
+  </si>
+  <si>
+    <t>Carla Edwards</t>
+  </si>
+  <si>
+    <t>Kim Hawkins</t>
+  </si>
+  <si>
+    <t>Alejandra Floyd</t>
+  </si>
+  <si>
+    <t>Jennifer Williams</t>
+  </si>
+  <si>
+    <t>Sara Adams</t>
+  </si>
+  <si>
+    <t>Victoria Myers</t>
+  </si>
+  <si>
+    <t>Daniel Osborne</t>
+  </si>
+  <si>
+    <t>Melissa Joseph</t>
+  </si>
+  <si>
+    <t>Dana Fowler</t>
+  </si>
+  <si>
+    <t>Thomas Stark</t>
+  </si>
+  <si>
+    <t>Jerry Baker</t>
+  </si>
+  <si>
+    <t>Danielle Williams</t>
+  </si>
+  <si>
+    <t>Vanessa Kelley</t>
+  </si>
+  <si>
+    <t>Megan Gray</t>
+  </si>
+  <si>
+    <t>Walter Johns</t>
+  </si>
+  <si>
+    <t>William Price</t>
+  </si>
+  <si>
+    <t>Haley Larson</t>
+  </si>
+  <si>
+    <t>Aaron Tucker</t>
+  </si>
+  <si>
+    <t>Joanne Martin</t>
+  </si>
+  <si>
+    <t>Anthony Martinez</t>
+  </si>
+  <si>
+    <t>Alisha Williams</t>
+  </si>
+  <si>
+    <t>Stephanie Ferguson</t>
+  </si>
+  <si>
+    <t>Timothy Brown</t>
+  </si>
+  <si>
+    <t>Janice Moreno</t>
+  </si>
+  <si>
+    <t>Kristin Baker</t>
+  </si>
+  <si>
+    <t>Aaron Chavez</t>
+  </si>
+  <si>
+    <t>Jane Scott</t>
+  </si>
+  <si>
+    <t>Tammy Marshall</t>
+  </si>
+  <si>
+    <t>Austin Franklin</t>
+  </si>
+  <si>
+    <t>Katie Mcmahon</t>
+  </si>
+  <si>
+    <t>qtaylor@example.com</t>
+  </si>
+  <si>
+    <t>kristen81@example.com</t>
+  </si>
+  <si>
+    <t>hlevy@example.org</t>
+  </si>
+  <si>
+    <t>tonyamolina@example.org</t>
+  </si>
+  <si>
+    <t>nathan61@example.net</t>
+  </si>
+  <si>
+    <t>staciewilliams@example.com</t>
+  </si>
+  <si>
+    <t>nstanley@example.net</t>
+  </si>
+  <si>
+    <t>osuarez@example.com</t>
+  </si>
+  <si>
+    <t>ewhite@example.com</t>
+  </si>
+  <si>
+    <t>jamessharp@example.org</t>
+  </si>
+  <si>
+    <t>williamsjennifer@example.org</t>
+  </si>
+  <si>
+    <t>santossamuel@example.net</t>
+  </si>
+  <si>
+    <t>knoxjoseph@example.com</t>
+  </si>
+  <si>
+    <t>benjaminhanson@example.net</t>
+  </si>
+  <si>
+    <t>atkinsshannon@example.org</t>
+  </si>
+  <si>
+    <t>jeffersonjohn@example.org</t>
+  </si>
+  <si>
+    <t>michael49@example.com</t>
+  </si>
+  <si>
+    <t>judy69@example.net</t>
+  </si>
+  <si>
+    <t>wilsonjessica@example.org</t>
+  </si>
+  <si>
+    <t>alisonfriedman@example.org</t>
+  </si>
+  <si>
+    <t>tranjulie@example.net</t>
+  </si>
+  <si>
+    <t>qanderson@example.com</t>
+  </si>
+  <si>
+    <t>kristin21@example.net</t>
+  </si>
+  <si>
+    <t>wheelertammy@example.org</t>
+  </si>
+  <si>
+    <t>gglenn@example.org</t>
+  </si>
+  <si>
+    <t>jacobsaaron@example.com</t>
+  </si>
+  <si>
+    <t>amber30@example.org</t>
+  </si>
+  <si>
+    <t>nsilva@example.net</t>
+  </si>
+  <si>
+    <t>ubrewer@example.net</t>
+  </si>
+  <si>
+    <t>kingjessica@example.com</t>
+  </si>
+  <si>
+    <t>guzmanpamela@example.net</t>
+  </si>
+  <si>
+    <t>hcarr@example.net</t>
+  </si>
+  <si>
+    <t>oglover@example.com</t>
+  </si>
+  <si>
+    <t>vasquezjustin@example.net</t>
+  </si>
+  <si>
+    <t>robert91@example.net</t>
+  </si>
+  <si>
+    <t>jenkinskirsten@example.org</t>
+  </si>
+  <si>
+    <t>gholland@example.net</t>
+  </si>
+  <si>
+    <t>xhenry@example.net</t>
+  </si>
+  <si>
+    <t>heatherjohnson@example.org</t>
+  </si>
+  <si>
+    <t>proctorholly@example.net</t>
+  </si>
+  <si>
+    <t>phillipharris@example.com</t>
+  </si>
+  <si>
+    <t>wendy86@example.com</t>
+  </si>
+  <si>
+    <t>ghill@example.com</t>
+  </si>
+  <si>
+    <t>wmercado@example.com</t>
+  </si>
+  <si>
+    <t>bushpeter@example.org</t>
+  </si>
+  <si>
+    <t>llopez@example.net</t>
+  </si>
+  <si>
+    <t>tharvey@example.com</t>
+  </si>
+  <si>
+    <t>wendy15@example.com</t>
+  </si>
+  <si>
+    <t>suttongina@example.org</t>
+  </si>
+  <si>
+    <t>lhansen@example.net</t>
+  </si>
+  <si>
+    <t>david47@example.com</t>
+  </si>
+  <si>
+    <t>kduncan@example.org</t>
+  </si>
+  <si>
+    <t>kmoran@example.net</t>
+  </si>
+  <si>
+    <t>ilawrence@example.org</t>
+  </si>
+  <si>
+    <t>floresangela@example.net</t>
+  </si>
+  <si>
+    <t>erodriguez@example.com</t>
+  </si>
+  <si>
+    <t>gabriel25@example.org</t>
+  </si>
+  <si>
+    <t>lindseyliu@example.net</t>
+  </si>
+  <si>
+    <t>ydeleon@example.org</t>
+  </si>
+  <si>
+    <t>djohnson@example.net</t>
+  </si>
+  <si>
+    <t>kaitlyn74@example.net</t>
+  </si>
+  <si>
+    <t>rickwaters@example.org</t>
+  </si>
+  <si>
+    <t>mossmitchell@example.com</t>
+  </si>
+  <si>
+    <t>kimmichelle@example.net</t>
+  </si>
+  <si>
+    <t>wthomas@example.org</t>
+  </si>
+  <si>
+    <t>jeremylyons@example.net</t>
+  </si>
+  <si>
+    <t>bobbycook@example.net</t>
+  </si>
+  <si>
+    <t>nathanielbrown@example.org</t>
+  </si>
+  <si>
+    <t>thomasspencer@example.org</t>
+  </si>
+  <si>
+    <t>ramirezricardo@example.net</t>
+  </si>
+  <si>
+    <t>daniel59@example.com</t>
+  </si>
+  <si>
+    <t>james92@example.com</t>
+  </si>
+  <si>
+    <t>brittanybradley@example.org</t>
+  </si>
+  <si>
+    <t>diane45@example.com</t>
+  </si>
+  <si>
+    <t>kelly43@example.net</t>
+  </si>
+  <si>
+    <t>boylebrittany@example.com</t>
+  </si>
+  <si>
+    <t>christopherrobinson@example.net</t>
+  </si>
+  <si>
+    <t>bgonzalez@example.com</t>
+  </si>
+  <si>
+    <t>scott59@example.org</t>
+  </si>
+  <si>
+    <t>jerry58@example.org</t>
+  </si>
+  <si>
+    <t>adamsmorgan@example.org</t>
+  </si>
+  <si>
+    <t>stevensonjennifer@example.net</t>
+  </si>
+  <si>
+    <t>fordstephanie@example.org</t>
+  </si>
+  <si>
+    <t>teresa82@example.net</t>
+  </si>
+  <si>
+    <t>kevinnelson@example.net</t>
+  </si>
+  <si>
+    <t>harrybowman@example.org</t>
+  </si>
+  <si>
+    <t>chenjason@example.org</t>
+  </si>
+  <si>
+    <t>jonestiffany@example.org</t>
+  </si>
+  <si>
+    <t>bookermarc@example.org</t>
+  </si>
+  <si>
+    <t>yangkimberly@example.org</t>
+  </si>
+  <si>
+    <t>antonio48@example.com</t>
+  </si>
+  <si>
+    <t>emoore@example.com</t>
+  </si>
+  <si>
+    <t>nathankim@example.com</t>
+  </si>
+  <si>
+    <t>braunsusan@example.org</t>
+  </si>
+  <si>
+    <t>kstevens@example.net</t>
+  </si>
+  <si>
+    <t>escobarhannah@example.com</t>
+  </si>
+  <si>
+    <t>ashley29@example.net</t>
+  </si>
+  <si>
+    <t>+1-725-877-4110x8141</t>
+  </si>
+  <si>
+    <t>+1-768-708-2152x03627</t>
+  </si>
+  <si>
+    <t>950-557-5717</t>
+  </si>
+  <si>
+    <t>(306)843-7246</t>
+  </si>
+  <si>
+    <t>001-945-920-3844x94475</t>
+  </si>
+  <si>
+    <t>(634)848-7590x3709</t>
+  </si>
+  <si>
+    <t>8225270904</t>
+  </si>
+  <si>
+    <t>+1-349-946-9328x4207</t>
+  </si>
+  <si>
+    <t>(439)225-7595x983</t>
+  </si>
+  <si>
+    <t>836-950-6640x2612</t>
+  </si>
+  <si>
+    <t>7852577833</t>
+  </si>
+  <si>
+    <t>419-516-5833x72960</t>
+  </si>
+  <si>
+    <t>+1-852-322-0573x558</t>
+  </si>
+  <si>
+    <t>(208)244-9304</t>
+  </si>
+  <si>
+    <t>5459271443</t>
+  </si>
+  <si>
+    <t>+1-909-298-1991x5081</t>
+  </si>
+  <si>
+    <t>239-927-1793</t>
+  </si>
+  <si>
+    <t>4262218804</t>
+  </si>
+  <si>
+    <t>+1-619-954-0184</t>
+  </si>
+  <si>
+    <t>001-368-592-4675x46895</t>
+  </si>
+  <si>
+    <t>342.205.1140</t>
+  </si>
+  <si>
+    <t>285-259-0268x9224</t>
+  </si>
+  <si>
+    <t>001-852-230-3526x32476</t>
+  </si>
+  <si>
+    <t>+1-633-379-6083x9376</t>
+  </si>
+  <si>
+    <t>+1-601-990-1092x212</t>
+  </si>
+  <si>
+    <t>+1-817-515-0217</t>
+  </si>
+  <si>
+    <t>651-335-8059x1660</t>
+  </si>
+  <si>
+    <t>794-800-6570x840</t>
+  </si>
+  <si>
+    <t>(563)228-5138x60881</t>
+  </si>
+  <si>
+    <t>+1-271-380-8128x0223</t>
+  </si>
+  <si>
+    <t>+1-848-230-5433x23486</t>
+  </si>
+  <si>
+    <t>+1-649-301-3996x41946</t>
+  </si>
+  <si>
+    <t>001-200-826-1286</t>
+  </si>
+  <si>
+    <t>264-408-1522x736</t>
+  </si>
+  <si>
+    <t>4602803271</t>
+  </si>
+  <si>
+    <t>560.370.7340x758</t>
+  </si>
+  <si>
+    <t>+1-773-233-7559x8515</t>
+  </si>
+  <si>
+    <t>+1-269-509-7045x04613</t>
+  </si>
+  <si>
+    <t>2647102143</t>
+  </si>
+  <si>
+    <t>312-219-9967</t>
+  </si>
+  <si>
+    <t>+1-489-576-1561</t>
+  </si>
+  <si>
+    <t>(961)451-9291x30959</t>
+  </si>
+  <si>
+    <t>001-525-774-4465x243</t>
+  </si>
+  <si>
+    <t>001-918-606-2040x858</t>
+  </si>
+  <si>
+    <t>496.527.6013x55362</t>
+  </si>
+  <si>
+    <t>(711)305-8602x3198</t>
+  </si>
+  <si>
+    <t>7318842994</t>
+  </si>
+  <si>
+    <t>658.375.3084x5609</t>
+  </si>
+  <si>
+    <t>907.576.0616</t>
+  </si>
+  <si>
+    <t>739-222-8663x5583</t>
+  </si>
+  <si>
+    <t>352-606-6769</t>
+  </si>
+  <si>
+    <t>+1-239-716-0782x448</t>
+  </si>
+  <si>
+    <t>(265)545-2263x947</t>
+  </si>
+  <si>
+    <t>(569)593-0204</t>
+  </si>
+  <si>
+    <t>(532)811-2142</t>
+  </si>
+  <si>
+    <t>599.316.7156x6075</t>
+  </si>
+  <si>
+    <t>001-314-853-7095</t>
+  </si>
+  <si>
+    <t>+1-829-996-8373x2253</t>
+  </si>
+  <si>
+    <t>2522516610</t>
+  </si>
+  <si>
+    <t>606.911.7064x71514</t>
+  </si>
+  <si>
+    <t>860.292.4219x5786</t>
+  </si>
+  <si>
+    <t>883-940-0962x885</t>
+  </si>
+  <si>
+    <t>841.418.8261</t>
+  </si>
+  <si>
+    <t>001-852-611-8743x5455</t>
+  </si>
+  <si>
+    <t>258.305.8578x530</t>
+  </si>
+  <si>
+    <t>208-381-6364x8588</t>
+  </si>
+  <si>
+    <t>001-651-217-2297x1654</t>
+  </si>
+  <si>
+    <t>865-617-9473x98220</t>
+  </si>
+  <si>
+    <t>470-828-9603x577</t>
+  </si>
+  <si>
+    <t>489-473-2358x0103</t>
+  </si>
+  <si>
+    <t>526.227.0345</t>
+  </si>
+  <si>
+    <t>001-877-955-1199x3323</t>
+  </si>
+  <si>
+    <t>+1-858-539-4012</t>
+  </si>
+  <si>
+    <t>725.714.9991x5608</t>
+  </si>
+  <si>
+    <t>+1-650-217-9417x80061</t>
+  </si>
+  <si>
+    <t>253-625-7933x281</t>
+  </si>
+  <si>
+    <t>001-873-812-5811x81014</t>
+  </si>
+  <si>
+    <t>001-870-920-1618x7097</t>
+  </si>
+  <si>
+    <t>(490)529-5711</t>
+  </si>
+  <si>
+    <t>001-474-786-4500x5600</t>
+  </si>
+  <si>
+    <t>664-842-7446</t>
+  </si>
+  <si>
+    <t>001-417-347-1949</t>
+  </si>
+  <si>
+    <t>+1-932-812-5925x3830</t>
+  </si>
+  <si>
+    <t>+1-250-938-1991x23079</t>
+  </si>
+  <si>
+    <t>+1-817-374-6029</t>
+  </si>
+  <si>
+    <t>4893271153</t>
+  </si>
+  <si>
+    <t>431.372.0745</t>
+  </si>
+  <si>
+    <t>+1-692-877-6164</t>
+  </si>
+  <si>
+    <t>706.841.5750x964</t>
+  </si>
+  <si>
+    <t>001-984-899-1502x150</t>
+  </si>
+  <si>
+    <t>(445)328-6881x0235</t>
+  </si>
+  <si>
+    <t>895.250.3119</t>
+  </si>
+  <si>
+    <t>673-713-1982x396</t>
+  </si>
+  <si>
+    <t>(850)764-2670x4811</t>
+  </si>
+  <si>
+    <t>838.559.2842x607</t>
+  </si>
+  <si>
+    <t>(500)409-6281x33352</t>
+  </si>
+  <si>
+    <t>+1-624-354-2296x4870</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>On Boarding</t>
+  </si>
+  <si>
+    <t>Off Bording</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Is_Registered</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Adminsitation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,7 +978,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -956,28 +1001,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35C7B78B-1002-4503-8430-1A88326586DD}" name="Table1" displayName="Table1" ref="A1:I98" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I98" xr:uid="{35C7B78B-1002-4503-8430-1A88326586DD}">
+    <filterColumn colId="8">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{A20069DF-96D6-48B9-8A4F-3B225958C048}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F712AA94-C43B-43DF-95C0-ED2F219014A9}" name="EmpID"/>
+    <tableColumn id="3" xr3:uid="{039007B0-2551-4D22-B55D-FD0F2FB418F8}" name="DisplayName"/>
+    <tableColumn id="4" xr3:uid="{1E0910DD-ADB7-48C9-BEDB-B8AC3F9D2A07}" name="UserPrincipalName"/>
+    <tableColumn id="5" xr3:uid="{30E4C600-5572-4C96-9082-0407DCC51C40}" name="UserPhoneNumber"/>
+    <tableColumn id="6" xr3:uid="{E72BFBD2-40E4-4BFF-9B83-199AB07EC58D}" name="ManagerID"/>
+    <tableColumn id="7" xr3:uid="{6ECEA196-5EF5-4D04-8FDC-747C44033650}" name="Status"/>
+    <tableColumn id="8" xr3:uid="{E4348DE6-AE89-4BE0-A6A2-3057ED32BDB7}" name="Is_Registered"/>
+    <tableColumn id="9" xr3:uid="{239918F1-3C2F-47E8-8A90-801A9ED504CD}" name="Department"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1015,7 +1172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1049,6 +1206,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1083,9 +1241,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1258,14 +1417,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>301</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,13 +1455,22 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7673</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1299,15 +1482,24 @@
         <v>199</v>
       </c>
       <c r="F2">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6897</v>
+        <v>490</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1319,15 +1511,24 @@
         <v>200</v>
       </c>
       <c r="F3">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1939</v>
+      </c>
+      <c r="G3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7565</v>
+        <v>7140</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1339,15 +1540,24 @@
         <v>201</v>
       </c>
       <c r="F4">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8075</v>
+        <v>9537</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1359,15 +1569,24 @@
         <v>202</v>
       </c>
       <c r="F5">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>6708</v>
+      </c>
+      <c r="G5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1943</v>
+        <v>3688</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1379,15 +1598,24 @@
         <v>203</v>
       </c>
       <c r="F6">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4670</v>
+        <v>7358</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1399,15 +1627,24 @@
         <v>204</v>
       </c>
       <c r="F7">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7259</v>
+        <v>9460</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1419,15 +1656,24 @@
         <v>205</v>
       </c>
       <c r="F8">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>5539</v>
+      </c>
+      <c r="G8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1914</v>
+        <v>4495</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -1439,15 +1685,24 @@
         <v>206</v>
       </c>
       <c r="F9">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9328</v>
+        <v>9776</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1459,15 +1714,24 @@
         <v>207</v>
       </c>
       <c r="F10">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8585</v>
+        <v>6792</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -1479,15 +1743,24 @@
         <v>208</v>
       </c>
       <c r="F11">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8699</v>
+        <v>4470</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -1499,15 +1772,24 @@
         <v>209</v>
       </c>
       <c r="F12">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G12" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8180</v>
+        <v>2422</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1519,15 +1801,24 @@
         <v>210</v>
       </c>
       <c r="F13">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>298</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4536</v>
+        <v>3063</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1539,15 +1830,24 @@
         <v>211</v>
       </c>
       <c r="F14">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8625</v>
+        <v>5942</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1559,15 +1859,24 @@
         <v>212</v>
       </c>
       <c r="F15">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>6708</v>
+      </c>
+      <c r="G15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5569</v>
+        <v>7298</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1579,15 +1888,24 @@
         <v>213</v>
       </c>
       <c r="F16">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G16" t="s">
+        <v>298</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7070</v>
+        <v>1868</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1599,15 +1917,24 @@
         <v>214</v>
       </c>
       <c r="F17">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G17" t="s">
+        <v>298</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7544</v>
+        <v>7368</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -1619,15 +1946,24 @@
         <v>215</v>
       </c>
       <c r="F18">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4424</v>
+        <v>3406</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
@@ -1639,15 +1975,24 @@
         <v>216</v>
       </c>
       <c r="F19">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G19" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7558</v>
+        <v>4097</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -1659,15 +2004,24 @@
         <v>217</v>
       </c>
       <c r="F20">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5388</v>
+        <v>9375</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -1679,15 +2033,24 @@
         <v>218</v>
       </c>
       <c r="F21">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>6937</v>
+      </c>
+      <c r="G21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8814</v>
+        <v>5177</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -1699,15 +2062,24 @@
         <v>219</v>
       </c>
       <c r="F22">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8653</v>
+        <v>7275</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
@@ -1719,15 +2091,24 @@
         <v>220</v>
       </c>
       <c r="F23">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>6937</v>
+      </c>
+      <c r="G23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8724</v>
+        <v>2555</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -1739,15 +2120,24 @@
         <v>221</v>
       </c>
       <c r="F24">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G24" t="s">
+        <v>299</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5591</v>
+        <v>7794</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -1759,15 +2149,24 @@
         <v>222</v>
       </c>
       <c r="F25">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2335</v>
+        <v>5013</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -1779,15 +2178,24 @@
         <v>223</v>
       </c>
       <c r="F26">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G26" t="s">
+        <v>299</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1485</v>
+        <v>925</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1799,15 +2207,24 @@
         <v>224</v>
       </c>
       <c r="F27">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G27" t="s">
+        <v>299</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5605</v>
+        <v>1721</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -1819,15 +2236,24 @@
         <v>225</v>
       </c>
       <c r="F28">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>298</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7947</v>
+        <v>2311</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -1839,15 +2265,24 @@
         <v>226</v>
       </c>
       <c r="F29">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G29" t="s">
+        <v>299</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8563</v>
+        <v>7439</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
@@ -1859,15 +2294,24 @@
         <v>227</v>
       </c>
       <c r="F30">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G30" t="s">
+        <v>299</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>3559</v>
+        <v>720</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -1879,15 +2323,24 @@
         <v>228</v>
       </c>
       <c r="F31">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G31" t="s">
+        <v>299</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3343</v>
+        <v>5787</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -1899,15 +2352,24 @@
         <v>229</v>
       </c>
       <c r="F32">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G32" t="s">
+        <v>299</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>8530</v>
+        <v>5369</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -1919,15 +2381,24 @@
         <v>230</v>
       </c>
       <c r="F33">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G33" t="s">
+        <v>299</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1192</v>
+        <v>6725</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
@@ -1939,15 +2410,24 @@
         <v>231</v>
       </c>
       <c r="F34">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G34" t="s">
+        <v>299</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>545</v>
+        <v>8020</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
@@ -1959,15 +2439,24 @@
         <v>232</v>
       </c>
       <c r="F35">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>299</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>8815</v>
+        <v>5631</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -1979,15 +2468,24 @@
         <v>233</v>
       </c>
       <c r="F36">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3514</v>
+        <v>5503</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
@@ -1999,15 +2497,24 @@
         <v>234</v>
       </c>
       <c r="F37">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>5539</v>
+      </c>
+      <c r="G37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5034</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -2019,15 +2526,24 @@
         <v>235</v>
       </c>
       <c r="F38">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>6937</v>
+      </c>
+      <c r="G38" t="s">
+        <v>297</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>2403</v>
+        <v>8426</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -2039,15 +2555,24 @@
         <v>236</v>
       </c>
       <c r="F39">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G39" t="s">
+        <v>297</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7086</v>
+        <v>7223</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
@@ -2059,15 +2584,24 @@
         <v>237</v>
       </c>
       <c r="F40">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G40" t="s">
+        <v>297</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3945</v>
+        <v>9463</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
@@ -2079,15 +2613,24 @@
         <v>238</v>
       </c>
       <c r="F41">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G41" t="s">
+        <v>297</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5870</v>
+        <v>3316</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
@@ -2099,15 +2642,24 @@
         <v>239</v>
       </c>
       <c r="F42">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G42" t="s">
+        <v>297</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>8775</v>
+        <v>1344</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -2119,15 +2671,24 @@
         <v>240</v>
       </c>
       <c r="F43">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>6937</v>
+      </c>
+      <c r="G43" t="s">
+        <v>297</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>4094</v>
+        <v>1829</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
@@ -2139,15 +2700,24 @@
         <v>241</v>
       </c>
       <c r="F44">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G44" t="s">
+        <v>297</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1619</v>
+        <v>6853</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
@@ -2159,15 +2729,24 @@
         <v>242</v>
       </c>
       <c r="F45">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G45" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7499</v>
+        <v>4999</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -2179,15 +2758,24 @@
         <v>243</v>
       </c>
       <c r="F46">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>8439</v>
+        <v>4260</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -2199,15 +2787,24 @@
         <v>244</v>
       </c>
       <c r="F47">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G47" t="s">
+        <v>297</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6547</v>
+        <v>951</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
@@ -2219,15 +2816,24 @@
         <v>245</v>
       </c>
       <c r="F48">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>1939</v>
+      </c>
+      <c r="G48" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7918</v>
+        <v>4712</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
@@ -2239,15 +2845,24 @@
         <v>246</v>
       </c>
       <c r="F49">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G49" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>783</v>
+        <v>8206</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -2259,15 +2874,24 @@
         <v>247</v>
       </c>
       <c r="F50">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G50" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>2232</v>
+        <v>1596</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
@@ -2279,15 +2903,24 @@
         <v>248</v>
       </c>
       <c r="F51">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G51" t="s">
+        <v>297</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7916</v>
+        <v>4185</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -2299,15 +2932,24 @@
         <v>249</v>
       </c>
       <c r="F52">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>6708</v>
+      </c>
+      <c r="G52" t="s">
+        <v>297</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1120</v>
+        <v>4802</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
@@ -2319,15 +2961,24 @@
         <v>250</v>
       </c>
       <c r="F53">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>9057</v>
+        <v>1799</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
@@ -2339,15 +2990,24 @@
         <v>251</v>
       </c>
       <c r="F54">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>5539</v>
+      </c>
+      <c r="G54" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>8305</v>
+        <v>7129</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
@@ -2359,15 +3019,24 @@
         <v>252</v>
       </c>
       <c r="F55">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G55" t="s">
+        <v>299</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5744</v>
+        <v>8827</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
@@ -2379,15 +3048,24 @@
         <v>253</v>
       </c>
       <c r="F56">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G56" t="s">
+        <v>299</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>337</v>
+        <v>9944</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
@@ -2399,15 +3077,24 @@
         <v>254</v>
       </c>
       <c r="F57">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G57" t="s">
+        <v>299</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>4309</v>
+        <v>7372</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
@@ -2419,15 +3106,24 @@
         <v>255</v>
       </c>
       <c r="F58">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G58" t="s">
+        <v>299</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>4536</v>
+        <v>1018</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
@@ -2439,15 +3135,24 @@
         <v>256</v>
       </c>
       <c r="F59">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G59" t="s">
+        <v>299</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5452</v>
+        <v>4887</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
@@ -2459,15 +3164,24 @@
         <v>257</v>
       </c>
       <c r="F60">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>6937</v>
+      </c>
+      <c r="G60" t="s">
+        <v>299</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3030</v>
+        <v>707</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
@@ -2479,15 +3193,24 @@
         <v>258</v>
       </c>
       <c r="F61">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>6708</v>
+      </c>
+      <c r="G61" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>4438</v>
+        <v>8393</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
@@ -2499,15 +3222,24 @@
         <v>259</v>
       </c>
       <c r="F62">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G62" t="s">
+        <v>299</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6564</v>
+        <v>7471</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
@@ -2519,15 +3251,24 @@
         <v>260</v>
       </c>
       <c r="F63">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G63" t="s">
+        <v>299</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>4220</v>
+        <v>5105</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
@@ -2539,15 +3280,24 @@
         <v>261</v>
       </c>
       <c r="F64">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G64" t="s">
+        <v>299</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>754</v>
+        <v>1522</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -2559,15 +3309,24 @@
         <v>262</v>
       </c>
       <c r="F65">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>6708</v>
+      </c>
+      <c r="G65" t="s">
+        <v>299</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>3935</v>
+        <v>2927</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
@@ -2579,15 +3338,24 @@
         <v>263</v>
       </c>
       <c r="F66">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G66" t="s">
+        <v>299</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6734</v>
+        <v>1574</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
@@ -2599,15 +3367,24 @@
         <v>264</v>
       </c>
       <c r="F67">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G67" t="s">
+        <v>299</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7917</v>
+        <v>7224</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
@@ -2619,15 +3396,24 @@
         <v>265</v>
       </c>
       <c r="F68">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G68" t="s">
+        <v>299</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7246</v>
+        <v>5616</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -2639,15 +3425,24 @@
         <v>266</v>
       </c>
       <c r="F69">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1939</v>
+      </c>
+      <c r="G69" t="s">
+        <v>299</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>9440</v>
+        <v>7112</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
@@ -2659,15 +3454,24 @@
         <v>267</v>
       </c>
       <c r="F70">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>1939</v>
+      </c>
+      <c r="G70" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>9798</v>
+        <v>8051</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
@@ -2679,15 +3483,24 @@
         <v>268</v>
       </c>
       <c r="F71">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
+        <v>299</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>4390</v>
+        <v>378</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
@@ -2699,15 +3512,24 @@
         <v>269</v>
       </c>
       <c r="F72">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G72" t="s">
+        <v>299</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5734</v>
+        <v>4901</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
@@ -2719,15 +3541,24 @@
         <v>270</v>
       </c>
       <c r="F73">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G73" t="s">
+        <v>299</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2388</v>
+        <v>3199</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
@@ -2739,15 +3570,24 @@
         <v>271</v>
       </c>
       <c r="F74">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G74" t="s">
+        <v>299</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>3472</v>
+        <v>1404</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
@@ -2759,15 +3599,24 @@
         <v>272</v>
       </c>
       <c r="F75">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>3719</v>
+      </c>
+      <c r="G75" t="s">
+        <v>299</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>9884</v>
+        <v>3260</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
@@ -2779,15 +3628,24 @@
         <v>273</v>
       </c>
       <c r="F76">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G76" t="s">
+        <v>299</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>3373</v>
+        <v>8129</v>
       </c>
       <c r="C77" t="s">
         <v>80</v>
@@ -2799,15 +3657,24 @@
         <v>274</v>
       </c>
       <c r="F77">
-        <v>5946</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G77" t="s">
+        <v>299</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>7704</v>
+        <v>2133</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
@@ -2819,15 +3686,24 @@
         <v>275</v>
       </c>
       <c r="F78">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G78" t="s">
+        <v>299</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1841</v>
+        <v>9191</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
@@ -2839,15 +3715,24 @@
         <v>276</v>
       </c>
       <c r="F79">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G79" t="s">
+        <v>299</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7199</v>
+        <v>6940</v>
       </c>
       <c r="C80" t="s">
         <v>83</v>
@@ -2859,15 +3744,24 @@
         <v>277</v>
       </c>
       <c r="F80">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>1939</v>
+      </c>
+      <c r="G80" t="s">
+        <v>299</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>9725</v>
+        <v>4982</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
@@ -2879,15 +3773,24 @@
         <v>278</v>
       </c>
       <c r="F81">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>9585</v>
+      </c>
+      <c r="G81" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>962</v>
+        <v>7259</v>
       </c>
       <c r="C82" t="s">
         <v>85</v>
@@ -2899,15 +3802,24 @@
         <v>279</v>
       </c>
       <c r="F82">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>9088</v>
+      </c>
+      <c r="G82" t="s">
+        <v>299</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5359</v>
+        <v>2003</v>
       </c>
       <c r="C83" t="s">
         <v>86</v>
@@ -2919,15 +3831,24 @@
         <v>280</v>
       </c>
       <c r="F83">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>6937</v>
+      </c>
+      <c r="G83" t="s">
+        <v>299</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>9920</v>
+        <v>3241</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
@@ -2939,15 +3860,24 @@
         <v>281</v>
       </c>
       <c r="F84">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>5539</v>
+      </c>
+      <c r="G84" t="s">
+        <v>299</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>2194</v>
+        <v>3348</v>
       </c>
       <c r="C85" t="s">
         <v>88</v>
@@ -2959,15 +3889,24 @@
         <v>282</v>
       </c>
       <c r="F85">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G85" t="s">
+        <v>299</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>9802</v>
+        <v>5939</v>
       </c>
       <c r="C86" t="s">
         <v>89</v>
@@ -2979,15 +3918,24 @@
         <v>283</v>
       </c>
       <c r="F86">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>5539</v>
+      </c>
+      <c r="G86" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>7476</v>
+        <v>5332</v>
       </c>
       <c r="C87" t="s">
         <v>90</v>
@@ -2999,15 +3947,24 @@
         <v>284</v>
       </c>
       <c r="F87">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G87" t="s">
+        <v>299</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1316</v>
+        <v>6740</v>
       </c>
       <c r="C88" t="s">
         <v>91</v>
@@ -3019,15 +3976,24 @@
         <v>285</v>
       </c>
       <c r="F88">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G88" t="s">
+        <v>299</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6852</v>
+        <v>781</v>
       </c>
       <c r="C89" t="s">
         <v>92</v>
@@ -3039,15 +4005,24 @@
         <v>286</v>
       </c>
       <c r="F89">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G89" t="s">
+        <v>299</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>4707</v>
+        <v>676</v>
       </c>
       <c r="C90" t="s">
         <v>93</v>
@@ -3059,15 +4034,24 @@
         <v>287</v>
       </c>
       <c r="F90">
-        <v>9735</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G90" t="s">
+        <v>299</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5499</v>
+        <v>739</v>
       </c>
       <c r="C91" t="s">
         <v>94</v>
@@ -3079,15 +4063,24 @@
         <v>288</v>
       </c>
       <c r="F91">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G91" t="s">
+        <v>299</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>4637</v>
+        <v>8967</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
@@ -3099,15 +4092,24 @@
         <v>289</v>
       </c>
       <c r="F92">
-        <v>8397</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>143</v>
+      </c>
+      <c r="G92" t="s">
+        <v>299</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>4198</v>
+        <v>9839</v>
       </c>
       <c r="C93" t="s">
         <v>96</v>
@@ -3119,15 +4121,24 @@
         <v>290</v>
       </c>
       <c r="F93">
-        <v>9941</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>9817</v>
+      </c>
+      <c r="G93" t="s">
+        <v>299</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>8026</v>
+        <v>382</v>
       </c>
       <c r="C94" t="s">
         <v>97</v>
@@ -3139,15 +4150,24 @@
         <v>291</v>
       </c>
       <c r="F94">
-        <v>7626</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>5539</v>
+      </c>
+      <c r="G94" t="s">
+        <v>299</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+      <c r="I94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6797</v>
+        <v>4429</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
@@ -3159,15 +4179,24 @@
         <v>292</v>
       </c>
       <c r="F95">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>7226</v>
+      </c>
+      <c r="G95" t="s">
+        <v>299</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6765</v>
+        <v>6568</v>
       </c>
       <c r="C96" t="s">
         <v>99</v>
@@ -3179,15 +4208,24 @@
         <v>293</v>
       </c>
       <c r="F96">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>2548</v>
+      </c>
+      <c r="G96" t="s">
+        <v>299</v>
+      </c>
+      <c r="H96" t="b">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>9380</v>
+        <v>1824</v>
       </c>
       <c r="C97" t="s">
         <v>100</v>
@@ -3199,15 +4237,24 @@
         <v>294</v>
       </c>
       <c r="F97">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>261</v>
+      </c>
+      <c r="G97" t="s">
+        <v>299</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>8087</v>
+        <v>9723</v>
       </c>
       <c r="C98" t="s">
         <v>101</v>
@@ -3219,10 +4266,22 @@
         <v>295</v>
       </c>
       <c r="F98">
-        <v>5212</v>
+        <v>7226</v>
+      </c>
+      <c r="G98" t="s">
+        <v>299</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>